--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5477,28 +5477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3497.269700034781</v>
+        <v>3705.388702417255</v>
       </c>
       <c r="AB2" t="n">
-        <v>4785.11869223788</v>
+        <v>5069.876292859979</v>
       </c>
       <c r="AC2" t="n">
-        <v>4328.433680206781</v>
+        <v>4586.014415085299</v>
       </c>
       <c r="AD2" t="n">
-        <v>3497269.700034781</v>
+        <v>3705388.702417254</v>
       </c>
       <c r="AE2" t="n">
-        <v>4785118.69223788</v>
+        <v>5069876.292859979</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.341645843766494e-07</v>
+        <v>9.030317331061556e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.93209876543209</v>
       </c>
       <c r="AH2" t="n">
-        <v>4328433.680206781</v>
+        <v>4586014.415085299</v>
       </c>
     </row>
     <row r="3">
@@ -5583,28 +5583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2061.890355183861</v>
+        <v>2207.607793193423</v>
       </c>
       <c r="AB3" t="n">
-        <v>2821.169348145098</v>
+        <v>3020.546375429612</v>
       </c>
       <c r="AC3" t="n">
-        <v>2551.920905094179</v>
+        <v>2732.26966872196</v>
       </c>
       <c r="AD3" t="n">
-        <v>2061890.355183861</v>
+        <v>2207607.793193423</v>
       </c>
       <c r="AE3" t="n">
-        <v>2821169.348145098</v>
+        <v>3020546.375429613</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.544792467952952e-07</v>
+        <v>1.275484601101468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.85570987654321</v>
       </c>
       <c r="AH3" t="n">
-        <v>2551920.905094178</v>
+        <v>2732269.66872196</v>
       </c>
     </row>
     <row r="4">
@@ -5689,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1758.95523255333</v>
+        <v>1883.84379166228</v>
       </c>
       <c r="AB4" t="n">
-        <v>2406.68014880762</v>
+        <v>2577.558185074858</v>
       </c>
       <c r="AC4" t="n">
-        <v>2176.989973202223</v>
+        <v>2331.559649516946</v>
       </c>
       <c r="AD4" t="n">
-        <v>1758955.23255333</v>
+        <v>1883843.79166228</v>
       </c>
       <c r="AE4" t="n">
-        <v>2406680.14880762</v>
+        <v>2577558.185074857</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.41082078339597e-07</v>
+        <v>1.421890984730615e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.08950617283951</v>
       </c>
       <c r="AH4" t="n">
-        <v>2176989.973202223</v>
+        <v>2331559.649516946</v>
       </c>
     </row>
     <row r="5">
@@ -5795,28 +5795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1607.450993279308</v>
+        <v>1732.339462879706</v>
       </c>
       <c r="AB5" t="n">
-        <v>2199.385364737591</v>
+        <v>2370.26327853528</v>
       </c>
       <c r="AC5" t="n">
-        <v>1989.479112383782</v>
+        <v>2144.048677917278</v>
       </c>
       <c r="AD5" t="n">
-        <v>1607450.993279308</v>
+        <v>1732339.462879706</v>
       </c>
       <c r="AE5" t="n">
-        <v>2199385.364737591</v>
+        <v>2370263.27853528</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.88978853578168e-07</v>
+        <v>1.50286285972745e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.79320987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>1989479.112383782</v>
+        <v>2144048.677917278</v>
       </c>
     </row>
     <row r="6">
@@ -5901,28 +5901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1534.915387203173</v>
+        <v>1649.389462107542</v>
       </c>
       <c r="AB6" t="n">
-        <v>2100.138948459132</v>
+        <v>2256.767427983046</v>
       </c>
       <c r="AC6" t="n">
-        <v>1899.704634781719</v>
+        <v>2041.384712049322</v>
       </c>
       <c r="AD6" t="n">
-        <v>1534915.387203173</v>
+        <v>1649389.462107542</v>
       </c>
       <c r="AE6" t="n">
-        <v>2100138.948459132</v>
+        <v>2256767.427983046</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.173913046791184e-07</v>
+        <v>1.550895518031494e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.08719135802469</v>
       </c>
       <c r="AH6" t="n">
-        <v>1899704.634781718</v>
+        <v>2041384.712049322</v>
       </c>
     </row>
     <row r="7">
@@ -6007,28 +6007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1472.526678878296</v>
+        <v>1587.086005128685</v>
       </c>
       <c r="AB7" t="n">
-        <v>2014.775965333478</v>
+        <v>2171.521089510041</v>
       </c>
       <c r="AC7" t="n">
-        <v>1822.488574957877</v>
+        <v>1964.274164476193</v>
       </c>
       <c r="AD7" t="n">
-        <v>1472526.678878296</v>
+        <v>1587086.005128685</v>
       </c>
       <c r="AE7" t="n">
-        <v>2014775.965333478</v>
+        <v>2171521.089510041</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.379785150886795e-07</v>
+        <v>1.585699218688029e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.60108024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>1822488.574957877</v>
+        <v>1964274.164476193</v>
       </c>
     </row>
     <row r="8">
@@ -6113,28 +6113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1432.603651421364</v>
+        <v>1546.992385471161</v>
       </c>
       <c r="AB8" t="n">
-        <v>1960.151517887238</v>
+        <v>2116.663230288953</v>
       </c>
       <c r="AC8" t="n">
-        <v>1773.077408110013</v>
+        <v>1914.651862345677</v>
       </c>
       <c r="AD8" t="n">
-        <v>1432603.651421364</v>
+        <v>1546992.385471161</v>
       </c>
       <c r="AE8" t="n">
-        <v>1960151.517887237</v>
+        <v>2116663.230288954</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.52893738956831e-07</v>
+        <v>1.610914144673886e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.26543209876543</v>
       </c>
       <c r="AH8" t="n">
-        <v>1773077.408110013</v>
+        <v>1914651.862345677</v>
       </c>
     </row>
     <row r="9">
@@ -6219,28 +6219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1404.39813714275</v>
+        <v>1508.54306869711</v>
       </c>
       <c r="AB9" t="n">
-        <v>1921.559488911769</v>
+        <v>2064.055178814556</v>
       </c>
       <c r="AC9" t="n">
-        <v>1738.16854821571</v>
+        <v>1867.064649468133</v>
       </c>
       <c r="AD9" t="n">
-        <v>1404398.13714275</v>
+        <v>1508543.06869711</v>
       </c>
       <c r="AE9" t="n">
-        <v>1921559.488911769</v>
+        <v>2064055.178814556</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.630823073738077e-07</v>
+        <v>1.628138425100844e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.03780864197531</v>
       </c>
       <c r="AH9" t="n">
-        <v>1738168.54821571</v>
+        <v>1867064.649468133</v>
       </c>
     </row>
     <row r="10">
@@ -6325,28 +6325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1365.754581205924</v>
+        <v>1480.228566601741</v>
       </c>
       <c r="AB10" t="n">
-        <v>1868.685670845636</v>
+        <v>2025.314027900001</v>
       </c>
       <c r="AC10" t="n">
-        <v>1690.340933136939</v>
+        <v>1832.020899623315</v>
       </c>
       <c r="AD10" t="n">
-        <v>1365754.581205924</v>
+        <v>1480228.566601741</v>
       </c>
       <c r="AE10" t="n">
-        <v>1868685.670845636</v>
+        <v>2025314.027900001</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.725881366700594e-07</v>
+        <v>1.644208501169295e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1690340.933136939</v>
+        <v>1832020.899623315</v>
       </c>
     </row>
     <row r="11">
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1345.051177048306</v>
+        <v>1459.525162444123</v>
       </c>
       <c r="AB11" t="n">
-        <v>1840.358359907454</v>
+        <v>1996.986716961819</v>
       </c>
       <c r="AC11" t="n">
-        <v>1664.717140997067</v>
+        <v>1806.397107483443</v>
       </c>
       <c r="AD11" t="n">
-        <v>1345051.177048306</v>
+        <v>1459525.162444123</v>
       </c>
       <c r="AE11" t="n">
-        <v>1840358.359907454</v>
+        <v>1996986.716961819</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.787327887565863e-07</v>
+        <v>1.654596340395862e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.70216049382716</v>
       </c>
       <c r="AH11" t="n">
-        <v>1664717.140997067</v>
+        <v>1806397.107483443</v>
       </c>
     </row>
     <row r="12">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1322.699856842816</v>
+        <v>1437.173842238634</v>
       </c>
       <c r="AB12" t="n">
-        <v>1809.77629753165</v>
+        <v>1966.404654586015</v>
       </c>
       <c r="AC12" t="n">
-        <v>1637.053787732215</v>
+        <v>1778.733754218591</v>
       </c>
       <c r="AD12" t="n">
-        <v>1322699.856842816</v>
+        <v>1437173.842238634</v>
       </c>
       <c r="AE12" t="n">
-        <v>1809776.297531649</v>
+        <v>1966404.654586015</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.857177351455446e-07</v>
+        <v>1.666404738832901e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>1637053.787732215</v>
+        <v>1778733.754218591</v>
       </c>
     </row>
     <row r="13">
@@ -6643,28 +6643,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1303.938591328264</v>
+        <v>1418.241984523489</v>
       </c>
       <c r="AB13" t="n">
-        <v>1784.10630636602</v>
+        <v>1940.501251645538</v>
       </c>
       <c r="AC13" t="n">
-        <v>1613.833704495374</v>
+        <v>1755.302535699099</v>
       </c>
       <c r="AD13" t="n">
-        <v>1303938.591328264</v>
+        <v>1418241.984523489</v>
       </c>
       <c r="AE13" t="n">
-        <v>1784106.30636602</v>
+        <v>1940501.251645538</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.898141698698961e-07</v>
+        <v>1.673329964983946e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.47067901234568</v>
       </c>
       <c r="AH13" t="n">
-        <v>1613833.704495374</v>
+        <v>1755302.535699099</v>
       </c>
     </row>
     <row r="14">
@@ -6749,28 +6749,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1284.491993683238</v>
+        <v>1388.551584383026</v>
       </c>
       <c r="AB14" t="n">
-        <v>1757.498613544756</v>
+        <v>1899.877536325346</v>
       </c>
       <c r="AC14" t="n">
-        <v>1589.76541253284</v>
+        <v>1718.555890753324</v>
       </c>
       <c r="AD14" t="n">
-        <v>1284491.993683238</v>
+        <v>1388551.584383026</v>
       </c>
       <c r="AE14" t="n">
-        <v>1757498.613544756</v>
+        <v>1899877.536325346</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.942782333515611e-07</v>
+        <v>1.680876685789572e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.37808641975309</v>
       </c>
       <c r="AH14" t="n">
-        <v>1589765.41253284</v>
+        <v>1718555.890753324</v>
       </c>
     </row>
     <row r="15">
@@ -6855,28 +6855,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1271.346564595854</v>
+        <v>1375.406155295642</v>
       </c>
       <c r="AB15" t="n">
-        <v>1739.512457531996</v>
+        <v>1881.891380312585</v>
       </c>
       <c r="AC15" t="n">
-        <v>1573.495830006209</v>
+        <v>1702.286308226693</v>
       </c>
       <c r="AD15" t="n">
-        <v>1271346.564595854</v>
+        <v>1375406.155295642</v>
       </c>
       <c r="AE15" t="n">
-        <v>1739512.457531996</v>
+        <v>1881891.380312585</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.973768185917757e-07</v>
+        <v>1.686114997878183e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.31635802469136</v>
       </c>
       <c r="AH15" t="n">
-        <v>1573495.830006209</v>
+        <v>1702286.308226693</v>
       </c>
     </row>
     <row r="16">
@@ -6961,28 +6961,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1251.37571834841</v>
+        <v>1355.435309048198</v>
       </c>
       <c r="AB16" t="n">
-        <v>1712.187464644688</v>
+        <v>1854.566387425278</v>
       </c>
       <c r="AC16" t="n">
-        <v>1548.778696089198</v>
+        <v>1677.569174309681</v>
       </c>
       <c r="AD16" t="n">
-        <v>1251375.71834841</v>
+        <v>1355435.309048198</v>
       </c>
       <c r="AE16" t="n">
-        <v>1712187.464644688</v>
+        <v>1854566.387425278</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.000685477407598e-06</v>
+        <v>1.691708449769412e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.24691358024691</v>
       </c>
       <c r="AH16" t="n">
-        <v>1548778.696089198</v>
+        <v>1677569.174309681</v>
       </c>
     </row>
     <row r="17">
@@ -7067,28 +7067,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1232.237426337284</v>
+        <v>1336.297017037072</v>
       </c>
       <c r="AB17" t="n">
-        <v>1686.001609193212</v>
+        <v>1828.380531973801</v>
       </c>
       <c r="AC17" t="n">
-        <v>1525.091981929931</v>
+        <v>1653.882460150415</v>
       </c>
       <c r="AD17" t="n">
-        <v>1232237.426337284</v>
+        <v>1336297.017037072</v>
       </c>
       <c r="AE17" t="n">
-        <v>1686001.609193212</v>
+        <v>1828380.531973802</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.004466801768538e-06</v>
+        <v>1.698100966216531e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.16975308641976</v>
       </c>
       <c r="AH17" t="n">
-        <v>1525091.981929931</v>
+        <v>1653882.460150415</v>
       </c>
     </row>
     <row r="18">
@@ -7173,28 +7173,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1221.427069876928</v>
+        <v>1325.486660576716</v>
       </c>
       <c r="AB18" t="n">
-        <v>1671.210402564884</v>
+        <v>1813.589325345474</v>
       </c>
       <c r="AC18" t="n">
-        <v>1511.712427302622</v>
+        <v>1640.502905523106</v>
       </c>
       <c r="AD18" t="n">
-        <v>1221427.069876928</v>
+        <v>1325486.660576716</v>
       </c>
       <c r="AE18" t="n">
-        <v>1671210.402564884</v>
+        <v>1813589.325345474</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.005202059283165e-06</v>
+        <v>1.699343955525693e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.15817901234568</v>
       </c>
       <c r="AH18" t="n">
-        <v>1511712.427302622</v>
+        <v>1640502.905523106</v>
       </c>
     </row>
     <row r="19">
@@ -7279,28 +7279,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1208.825623847046</v>
+        <v>1312.885214546833</v>
       </c>
       <c r="AB19" t="n">
-        <v>1653.968548170236</v>
+        <v>1796.347470950826</v>
       </c>
       <c r="AC19" t="n">
-        <v>1496.116111292305</v>
+        <v>1624.906589512789</v>
       </c>
       <c r="AD19" t="n">
-        <v>1208825.623847045</v>
+        <v>1312885.214546833</v>
       </c>
       <c r="AE19" t="n">
-        <v>1653968.548170236</v>
+        <v>1796347.470950826</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.007985534159968e-06</v>
+        <v>1.704049557910377e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20.10030864197531</v>
       </c>
       <c r="AH19" t="n">
-        <v>1496116.111292305</v>
+        <v>1624906.589512789</v>
       </c>
     </row>
     <row r="20">
@@ -7385,28 +7385,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1211.592201290265</v>
+        <v>1315.651791990053</v>
       </c>
       <c r="AB20" t="n">
-        <v>1657.753901480832</v>
+        <v>1800.132824261422</v>
       </c>
       <c r="AC20" t="n">
-        <v>1499.540195795715</v>
+        <v>1628.330674016198</v>
       </c>
       <c r="AD20" t="n">
-        <v>1211592.201290265</v>
+        <v>1315651.791990053</v>
       </c>
       <c r="AE20" t="n">
-        <v>1657753.901480832</v>
+        <v>1800132.824261422</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.007670423796556e-06</v>
+        <v>1.703516848206451e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20.10802469135803</v>
       </c>
       <c r="AH20" t="n">
-        <v>1499540.195795715</v>
+        <v>1628330.674016198</v>
       </c>
     </row>
     <row r="21">
@@ -7491,28 +7491,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1214.795786147827</v>
+        <v>1318.855376847614</v>
       </c>
       <c r="AB21" t="n">
-        <v>1662.137187615137</v>
+        <v>1804.516110395727</v>
       </c>
       <c r="AC21" t="n">
-        <v>1503.505147253342</v>
+        <v>1632.295625473826</v>
       </c>
       <c r="AD21" t="n">
-        <v>1214795.786147827</v>
+        <v>1318855.376847615</v>
       </c>
       <c r="AE21" t="n">
-        <v>1662137.187615137</v>
+        <v>1804516.110395727</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.007092721463635e-06</v>
+        <v>1.702540213749252e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>20.1195987654321</v>
       </c>
       <c r="AH21" t="n">
-        <v>1503505.147253342</v>
+        <v>1632295.625473826</v>
       </c>
     </row>
   </sheetData>
@@ -7788,28 +7788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2614.822765447239</v>
+        <v>2786.19182659227</v>
       </c>
       <c r="AB2" t="n">
-        <v>3577.715865523981</v>
+        <v>3812.190575252026</v>
       </c>
       <c r="AC2" t="n">
-        <v>3236.263684673991</v>
+        <v>3448.360457192904</v>
       </c>
       <c r="AD2" t="n">
-        <v>2614822.765447239</v>
+        <v>2786191.826592269</v>
       </c>
       <c r="AE2" t="n">
-        <v>3577715.865523981</v>
+        <v>3812190.575252025</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.323958888528819e-07</v>
+        <v>1.0951775134847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.14429012345678</v>
       </c>
       <c r="AH2" t="n">
-        <v>3236263.684673991</v>
+        <v>3448360.457192904</v>
       </c>
     </row>
     <row r="3">
@@ -7894,28 +7894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1697.507465113888</v>
+        <v>1818.594368748761</v>
       </c>
       <c r="AB3" t="n">
-        <v>2322.6046025128</v>
+        <v>2488.281046043203</v>
       </c>
       <c r="AC3" t="n">
-        <v>2100.938479045011</v>
+        <v>2250.802995333221</v>
       </c>
       <c r="AD3" t="n">
-        <v>1697507.465113888</v>
+        <v>1818594.368748761</v>
       </c>
       <c r="AE3" t="n">
-        <v>2322604.6025128</v>
+        <v>2488281.046043203</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.364576550497398e-07</v>
+        <v>1.448569845155535e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.05787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>2100938.479045011</v>
+        <v>2250802.995333221</v>
       </c>
     </row>
     <row r="4">
@@ -8000,28 +8000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1467.981076124755</v>
+        <v>1588.982549396505</v>
       </c>
       <c r="AB4" t="n">
-        <v>2008.556471108242</v>
+        <v>2174.116025046899</v>
       </c>
       <c r="AC4" t="n">
-        <v>1816.862660532383</v>
+        <v>1966.621443007428</v>
       </c>
       <c r="AD4" t="n">
-        <v>1467981.076124755</v>
+        <v>1588982.549396504</v>
       </c>
       <c r="AE4" t="n">
-        <v>2008556.471108242</v>
+        <v>2174116.025046899</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.140402434760211e-07</v>
+        <v>1.582926674129432e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.9320987654321</v>
       </c>
       <c r="AH4" t="n">
-        <v>1816862.660532383</v>
+        <v>1966621.443007428</v>
       </c>
     </row>
     <row r="5">
@@ -8106,28 +8106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1365.605174152677</v>
+        <v>1486.521306569856</v>
       </c>
       <c r="AB5" t="n">
-        <v>1868.48124552401</v>
+        <v>2033.924032340469</v>
       </c>
       <c r="AC5" t="n">
-        <v>1690.156017881096</v>
+        <v>1839.809177324203</v>
       </c>
       <c r="AD5" t="n">
-        <v>1365605.174152677</v>
+        <v>1486521.306569856</v>
       </c>
       <c r="AE5" t="n">
-        <v>1868481.24552401</v>
+        <v>2033924.032340469</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.541354467383431e-07</v>
+        <v>1.652363186582327e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.9675925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1690156.017881096</v>
+        <v>1839809.177324203</v>
       </c>
     </row>
     <row r="6">
@@ -8212,28 +8212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1305.877240577649</v>
+        <v>1416.702894659518</v>
       </c>
       <c r="AB6" t="n">
-        <v>1786.758851796196</v>
+        <v>1938.3954009938</v>
       </c>
       <c r="AC6" t="n">
-        <v>1616.233094712565</v>
+        <v>1753.397664477983</v>
       </c>
       <c r="AD6" t="n">
-        <v>1305877.240577649</v>
+        <v>1416702.894659518</v>
       </c>
       <c r="AE6" t="n">
-        <v>1786758.851796196</v>
+        <v>1938395.4009938</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.797246618285241e-07</v>
+        <v>1.696678359164054e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.39660493827161</v>
       </c>
       <c r="AH6" t="n">
-        <v>1616233.094712565</v>
+        <v>1753397.664477983</v>
       </c>
     </row>
     <row r="7">
@@ -8318,28 +8318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1264.294681995876</v>
+        <v>1365.200449943029</v>
       </c>
       <c r="AB7" t="n">
-        <v>1729.863760651603</v>
+        <v>1867.927484005197</v>
       </c>
       <c r="AC7" t="n">
-        <v>1564.76799121405</v>
+        <v>1689.65510658443</v>
       </c>
       <c r="AD7" t="n">
-        <v>1264294.681995876</v>
+        <v>1365200.449943029</v>
       </c>
       <c r="AE7" t="n">
-        <v>1729863.760651603</v>
+        <v>1867927.484005197</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.971644453613227e-07</v>
+        <v>1.726880419458606e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.01851851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>1564767.99121405</v>
+        <v>1689655.10658443</v>
       </c>
     </row>
     <row r="8">
@@ -8424,28 +8424,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1221.315406581944</v>
+        <v>1332.226312009833</v>
       </c>
       <c r="AB8" t="n">
-        <v>1671.05761991845</v>
+        <v>1822.810813768702</v>
       </c>
       <c r="AC8" t="n">
-        <v>1511.574226017532</v>
+        <v>1648.844308033662</v>
       </c>
       <c r="AD8" t="n">
-        <v>1221315.406581944</v>
+        <v>1332226.312009834</v>
       </c>
       <c r="AE8" t="n">
-        <v>1671057.61991845</v>
+        <v>1822810.813768702</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.009171274522533e-06</v>
+        <v>1.747673738228376e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.77160493827161</v>
       </c>
       <c r="AH8" t="n">
-        <v>1511574.226017532</v>
+        <v>1648844.308033662</v>
       </c>
     </row>
     <row r="9">
@@ -8530,28 +8530,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1190.457050583067</v>
+        <v>1301.367956010958</v>
       </c>
       <c r="AB9" t="n">
-        <v>1628.835855866202</v>
+        <v>1780.589049716455</v>
       </c>
       <c r="AC9" t="n">
-        <v>1473.382047867813</v>
+        <v>1610.652129883943</v>
       </c>
       <c r="AD9" t="n">
-        <v>1190457.050583068</v>
+        <v>1301367.956010958</v>
       </c>
       <c r="AE9" t="n">
-        <v>1628835.855866202</v>
+        <v>1780589.049716455</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.01884193330396e-06</v>
+        <v>1.764421298142489e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.57098765432099</v>
       </c>
       <c r="AH9" t="n">
-        <v>1473382.047867813</v>
+        <v>1610652.129883942</v>
       </c>
     </row>
     <row r="10">
@@ -8636,28 +8636,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1166.633684558176</v>
+        <v>1267.454111650757</v>
       </c>
       <c r="AB10" t="n">
-        <v>1596.239675458213</v>
+        <v>1734.186631689609</v>
       </c>
       <c r="AC10" t="n">
-        <v>1443.896801168936</v>
+        <v>1568.678293507377</v>
       </c>
       <c r="AD10" t="n">
-        <v>1166633.684558176</v>
+        <v>1267454.111650757</v>
       </c>
       <c r="AE10" t="n">
-        <v>1596239.675458213</v>
+        <v>1734186.631689609</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.025796114899593e-06</v>
+        <v>1.776464487294211e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.4320987654321</v>
       </c>
       <c r="AH10" t="n">
-        <v>1443896.801168936</v>
+        <v>1568678.293507377</v>
       </c>
     </row>
     <row r="11">
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1138.227174722022</v>
+        <v>1239.047601814603</v>
       </c>
       <c r="AB11" t="n">
-        <v>1557.372635493621</v>
+        <v>1695.319591725017</v>
       </c>
       <c r="AC11" t="n">
-        <v>1408.739176948331</v>
+        <v>1533.520669286772</v>
       </c>
       <c r="AD11" t="n">
-        <v>1138227.174722022</v>
+        <v>1239047.601814603</v>
       </c>
       <c r="AE11" t="n">
-        <v>1557372.635493621</v>
+        <v>1695319.591725017</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.032587307864079e-06</v>
+        <v>1.788225414200189e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.29706790123457</v>
       </c>
       <c r="AH11" t="n">
-        <v>1408739.176948331</v>
+        <v>1533520.669286772</v>
       </c>
     </row>
     <row r="12">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1117.705235594087</v>
+        <v>1218.525662686667</v>
       </c>
       <c r="AB12" t="n">
-        <v>1529.293613014722</v>
+        <v>1667.240569246118</v>
       </c>
       <c r="AC12" t="n">
-        <v>1383.339976965663</v>
+        <v>1508.121469304103</v>
       </c>
       <c r="AD12" t="n">
-        <v>1117705.235594087</v>
+        <v>1218525.662686667</v>
       </c>
       <c r="AE12" t="n">
-        <v>1529293.613014722</v>
+        <v>1667240.569246118</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.038020262235667e-06</v>
+        <v>1.797634155724972e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.1929012345679</v>
       </c>
       <c r="AH12" t="n">
-        <v>1383339.976965663</v>
+        <v>1508121.469304103</v>
       </c>
     </row>
     <row r="13">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1099.986372335066</v>
+        <v>1200.806799427647</v>
       </c>
       <c r="AB13" t="n">
-        <v>1505.049882602653</v>
+        <v>1642.996838834049</v>
       </c>
       <c r="AC13" t="n">
-        <v>1361.410034157832</v>
+        <v>1486.191526496273</v>
       </c>
       <c r="AD13" t="n">
-        <v>1099986.372335066</v>
+        <v>1200806.799427647</v>
       </c>
       <c r="AE13" t="n">
-        <v>1505049.882602653</v>
+        <v>1642996.838834049</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.041062716683756e-06</v>
+        <v>1.802903050978849e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.13503086419753</v>
       </c>
       <c r="AH13" t="n">
-        <v>1361410.034157832</v>
+        <v>1486191.526496273</v>
       </c>
     </row>
     <row r="14">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1089.341183417317</v>
+        <v>1190.161610509898</v>
       </c>
       <c r="AB14" t="n">
-        <v>1490.484665492799</v>
+        <v>1628.431621724194</v>
       </c>
       <c r="AC14" t="n">
-        <v>1348.234900926532</v>
+        <v>1473.016393264972</v>
       </c>
       <c r="AD14" t="n">
-        <v>1089341.183417317</v>
+        <v>1190161.610509898</v>
       </c>
       <c r="AE14" t="n">
-        <v>1490484.665492798</v>
+        <v>1628431.621724194</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.043018580257528e-06</v>
+        <v>1.806290197927772e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.09645061728395</v>
       </c>
       <c r="AH14" t="n">
-        <v>1348234.900926532</v>
+        <v>1473016.393264972</v>
       </c>
     </row>
     <row r="15">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1092.205190411705</v>
+        <v>1193.025617504285</v>
       </c>
       <c r="AB15" t="n">
-        <v>1494.403326213591</v>
+        <v>1632.350282444987</v>
       </c>
       <c r="AC15" t="n">
-        <v>1351.779570168007</v>
+        <v>1476.561062506448</v>
       </c>
       <c r="AD15" t="n">
-        <v>1092205.190411705</v>
+        <v>1193025.617504285</v>
       </c>
       <c r="AE15" t="n">
-        <v>1494403.326213591</v>
+        <v>1632350.282444987</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.042529614364085e-06</v>
+        <v>1.805443411190541e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1351779.570168007</v>
+        <v>1476561.062506448</v>
       </c>
     </row>
     <row r="16">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1096.566294665108</v>
+        <v>1197.386721757689</v>
       </c>
       <c r="AB16" t="n">
-        <v>1500.370381451439</v>
+        <v>1638.317337682835</v>
       </c>
       <c r="AC16" t="n">
-        <v>1357.177138028769</v>
+        <v>1481.95863036721</v>
       </c>
       <c r="AD16" t="n">
-        <v>1096566.294665108</v>
+        <v>1197386.721757689</v>
       </c>
       <c r="AE16" t="n">
-        <v>1500370.381451439</v>
+        <v>1638317.337682835</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.042529614364085e-06</v>
+        <v>1.805443411190541e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>1357177.138028769</v>
+        <v>1481958.63036721</v>
       </c>
     </row>
   </sheetData>
@@ -9569,28 +9569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1195.356467654648</v>
+        <v>1313.770879765376</v>
       </c>
       <c r="AB2" t="n">
-        <v>1635.539454450565</v>
+        <v>1797.559277175628</v>
       </c>
       <c r="AC2" t="n">
-        <v>1479.445864411844</v>
+        <v>1626.002742652277</v>
       </c>
       <c r="AD2" t="n">
-        <v>1195356.467654648</v>
+        <v>1313770.879765376</v>
       </c>
       <c r="AE2" t="n">
-        <v>1635539.454450564</v>
+        <v>1797559.277175629</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.419128535688427e-07</v>
+        <v>1.782301808915046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.83024691358025</v>
       </c>
       <c r="AH2" t="n">
-        <v>1479445.864411843</v>
+        <v>1626002.742652277</v>
       </c>
     </row>
     <row r="3">
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>937.2765372678358</v>
+        <v>1037.545559007705</v>
       </c>
       <c r="AB3" t="n">
-        <v>1282.423108012361</v>
+        <v>1419.61560711389</v>
       </c>
       <c r="AC3" t="n">
-        <v>1160.030446475797</v>
+        <v>1284.129486013958</v>
       </c>
       <c r="AD3" t="n">
-        <v>937276.5372678358</v>
+        <v>1037545.559007705</v>
       </c>
       <c r="AE3" t="n">
-        <v>1282423.108012361</v>
+        <v>1419615.60711389</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.080741484235808e-06</v>
+        <v>2.044995452631044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.63966049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>1160030.446475797</v>
+        <v>1284129.486013958</v>
       </c>
     </row>
     <row r="4">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>841.4490607627698</v>
+        <v>941.6327416480672</v>
       </c>
       <c r="AB4" t="n">
-        <v>1151.307727048236</v>
+        <v>1288.383459027567</v>
       </c>
       <c r="AC4" t="n">
-        <v>1041.428533449295</v>
+        <v>1165.421949955517</v>
       </c>
       <c r="AD4" t="n">
-        <v>841449.0607627698</v>
+        <v>941632.7416480671</v>
       </c>
       <c r="AE4" t="n">
-        <v>1151307.727048236</v>
+        <v>1288383.459027567</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.130453046308696e-06</v>
+        <v>2.139060425490047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.69058641975309</v>
       </c>
       <c r="AH4" t="n">
-        <v>1041428.533449295</v>
+        <v>1165421.949955517</v>
       </c>
     </row>
     <row r="5">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>806.6789834518912</v>
+        <v>897.7473882330244</v>
       </c>
       <c r="AB5" t="n">
-        <v>1103.733773323941</v>
+        <v>1228.337582399955</v>
       </c>
       <c r="AC5" t="n">
-        <v>998.3949710979839</v>
+        <v>1111.106767518327</v>
       </c>
       <c r="AD5" t="n">
-        <v>806678.9834518912</v>
+        <v>897747.3882330244</v>
       </c>
       <c r="AE5" t="n">
-        <v>1103733.773323942</v>
+        <v>1228337.582399955</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.146033377348613e-06</v>
+        <v>2.168541764544637e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.40895061728395</v>
       </c>
       <c r="AH5" t="n">
-        <v>998394.9710979839</v>
+        <v>1111106.767518327</v>
       </c>
     </row>
     <row r="6">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>809.9395697083265</v>
+        <v>901.0079744894596</v>
       </c>
       <c r="AB6" t="n">
-        <v>1108.19505128691</v>
+        <v>1232.798860362923</v>
       </c>
       <c r="AC6" t="n">
-        <v>1002.430470953609</v>
+        <v>1115.142267373952</v>
       </c>
       <c r="AD6" t="n">
-        <v>809939.5697083265</v>
+        <v>901007.9744894595</v>
       </c>
       <c r="AE6" t="n">
-        <v>1108195.05128691</v>
+        <v>1232798.860362923</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.146882111335223e-06</v>
+        <v>2.170147751886132e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.39351851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>1002430.470953609</v>
+        <v>1115142.267373952</v>
       </c>
     </row>
   </sheetData>
@@ -10290,28 +10290,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1616.861460251942</v>
+        <v>1749.643698956964</v>
       </c>
       <c r="AB2" t="n">
-        <v>2212.261180810052</v>
+        <v>2393.939697745202</v>
       </c>
       <c r="AC2" t="n">
-        <v>2001.126078641608</v>
+        <v>2165.465452907868</v>
       </c>
       <c r="AD2" t="n">
-        <v>1616861.460251942</v>
+        <v>1749643.698956965</v>
       </c>
       <c r="AE2" t="n">
-        <v>2212261.180810052</v>
+        <v>2393939.697745202</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.176985676685247e-07</v>
+        <v>1.489669206785452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.36496913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>2001126.078641608</v>
+        <v>2165465.452907868</v>
       </c>
     </row>
     <row r="3">
@@ -10396,28 +10396,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1189.668445874906</v>
+        <v>1303.542674368004</v>
       </c>
       <c r="AB3" t="n">
-        <v>1627.756852113711</v>
+        <v>1783.564595314369</v>
       </c>
       <c r="AC3" t="n">
-        <v>1472.406022719069</v>
+        <v>1613.343693586196</v>
       </c>
       <c r="AD3" t="n">
-        <v>1189668.445874906</v>
+        <v>1303542.674368004</v>
       </c>
       <c r="AE3" t="n">
-        <v>1627756.852113711</v>
+        <v>1783564.595314369</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.844397111572125e-07</v>
+        <v>1.793435358250675e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.72762345679012</v>
       </c>
       <c r="AH3" t="n">
-        <v>1472406.022719069</v>
+        <v>1613343.693586196</v>
       </c>
     </row>
     <row r="4">
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1070.863455671558</v>
+        <v>1175.155802039663</v>
       </c>
       <c r="AB4" t="n">
-        <v>1465.202623211235</v>
+        <v>1607.900012565672</v>
       </c>
       <c r="AC4" t="n">
-        <v>1325.365741276752</v>
+        <v>1454.444292068245</v>
       </c>
       <c r="AD4" t="n">
-        <v>1070863.455671558</v>
+        <v>1175155.802039663</v>
       </c>
       <c r="AE4" t="n">
-        <v>1465202.623211235</v>
+        <v>1607900.012565672</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.043422578262602e-06</v>
+        <v>1.900889332525503e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.4429012345679</v>
       </c>
       <c r="AH4" t="n">
-        <v>1325365.741276752</v>
+        <v>1454444.292068245</v>
       </c>
     </row>
     <row r="5">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>996.0073720814538</v>
+        <v>1100.384969795579</v>
       </c>
       <c r="AB5" t="n">
-        <v>1362.78122722592</v>
+        <v>1505.595261233006</v>
       </c>
       <c r="AC5" t="n">
-        <v>1232.719299574942</v>
+        <v>1361.903362617148</v>
       </c>
       <c r="AD5" t="n">
-        <v>996007.3720814538</v>
+        <v>1100384.969795579</v>
       </c>
       <c r="AE5" t="n">
-        <v>1362781.22722592</v>
+        <v>1505595.261233006</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.075146893215059e-06</v>
+        <v>1.958684144647756e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.81018518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>1232719.299574942</v>
+        <v>1361903.362617148</v>
       </c>
     </row>
     <row r="6">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>950.8614354550925</v>
+        <v>1045.742491898797</v>
       </c>
       <c r="AB6" t="n">
-        <v>1301.010565035576</v>
+        <v>1430.831012318639</v>
       </c>
       <c r="AC6" t="n">
-        <v>1176.843942688376</v>
+        <v>1294.274508686885</v>
       </c>
       <c r="AD6" t="n">
-        <v>950861.4354550926</v>
+        <v>1045742.491898797</v>
       </c>
       <c r="AE6" t="n">
-        <v>1301010.565035576</v>
+        <v>1430831.012318639</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.093705907446843e-06</v>
+        <v>1.992494638028233e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.45910493827161</v>
       </c>
       <c r="AH6" t="n">
-        <v>1176843.942688376</v>
+        <v>1294274.508686885</v>
       </c>
     </row>
     <row r="7">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>913.6292749286382</v>
+        <v>1008.510331372342</v>
       </c>
       <c r="AB7" t="n">
-        <v>1250.067880436285</v>
+        <v>1379.888327719348</v>
       </c>
       <c r="AC7" t="n">
-        <v>1130.763156408734</v>
+        <v>1248.193722407244</v>
       </c>
       <c r="AD7" t="n">
-        <v>913629.2749286382</v>
+        <v>1008510.331372342</v>
       </c>
       <c r="AE7" t="n">
-        <v>1250067.880436285</v>
+        <v>1379888.327719348</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.105305291341708e-06</v>
+        <v>2.013626196391031e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.24305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1130763.156408734</v>
+        <v>1248193.722407244</v>
       </c>
     </row>
     <row r="8">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>909.2942515521241</v>
+        <v>1004.175307995828</v>
       </c>
       <c r="AB8" t="n">
-        <v>1244.136510204804</v>
+        <v>1373.956957487867</v>
       </c>
       <c r="AC8" t="n">
-        <v>1125.397867827416</v>
+        <v>1242.828433825926</v>
       </c>
       <c r="AD8" t="n">
-        <v>909294.2515521242</v>
+        <v>1004175.307995828</v>
       </c>
       <c r="AE8" t="n">
-        <v>1244136.510204804</v>
+        <v>1373956.957487867</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.10733518352331e-06</v>
+        <v>2.017324219104521e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1125397.867827416</v>
+        <v>1242828.433825926</v>
       </c>
     </row>
     <row r="9">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>913.1832423516757</v>
+        <v>1008.06429879538</v>
       </c>
       <c r="AB9" t="n">
-        <v>1249.457598986916</v>
+        <v>1379.278046269979</v>
       </c>
       <c r="AC9" t="n">
-        <v>1130.211119364358</v>
+        <v>1247.641685362868</v>
       </c>
       <c r="AD9" t="n">
-        <v>913183.2423516758</v>
+        <v>1008064.29879538</v>
       </c>
       <c r="AE9" t="n">
-        <v>1249457.598986916</v>
+        <v>1379278.046269979</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.10733518352331e-06</v>
+        <v>2.017324219104521e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1130211.119364358</v>
+        <v>1247641.685362868</v>
       </c>
     </row>
   </sheetData>
@@ -11329,28 +11329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>934.2683223956136</v>
+        <v>1039.729529799829</v>
       </c>
       <c r="AB2" t="n">
-        <v>1278.307135711113</v>
+        <v>1422.603812301666</v>
       </c>
       <c r="AC2" t="n">
-        <v>1156.307296794177</v>
+        <v>1286.832501092585</v>
       </c>
       <c r="AD2" t="n">
-        <v>934268.3223956136</v>
+        <v>1039729.529799829</v>
       </c>
       <c r="AE2" t="n">
-        <v>1278307.135711113</v>
+        <v>1422603.812301666</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.044492803738086e-06</v>
+        <v>2.046869359256807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.25617283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>1156307.296794177</v>
+        <v>1286832.501092585</v>
       </c>
     </row>
     <row r="3">
@@ -11435,28 +11435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>744.0373356680697</v>
+        <v>840.7811444512386</v>
       </c>
       <c r="AB3" t="n">
-        <v>1018.024707271659</v>
+        <v>1150.393854484411</v>
       </c>
       <c r="AC3" t="n">
-        <v>920.8658580163012</v>
+        <v>1040.601879600333</v>
       </c>
       <c r="AD3" t="n">
-        <v>744037.3356680697</v>
+        <v>840781.1444512386</v>
       </c>
       <c r="AE3" t="n">
-        <v>1018024.707271659</v>
+        <v>1150393.854484411</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162107642328884e-06</v>
+        <v>2.277356547338772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.90277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>920865.8580163012</v>
+        <v>1040601.879600333</v>
       </c>
     </row>
     <row r="4">
@@ -11541,28 +11541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>726.0469452547073</v>
+        <v>822.7907540378762</v>
       </c>
       <c r="AB4" t="n">
-        <v>993.4094614280863</v>
+        <v>1125.778608640839</v>
       </c>
       <c r="AC4" t="n">
-        <v>898.599856688325</v>
+        <v>1018.335878272357</v>
       </c>
       <c r="AD4" t="n">
-        <v>726046.9452547074</v>
+        <v>822790.7540378763</v>
       </c>
       <c r="AE4" t="n">
-        <v>993409.4614280863</v>
+        <v>1125778.608640839</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.174448385564321e-06</v>
+        <v>2.301540427886987e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.68287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>898599.8566883249</v>
+        <v>1018335.878272357</v>
       </c>
     </row>
   </sheetData>
@@ -11838,28 +11838,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2819.188373658466</v>
+        <v>2992.090132642719</v>
       </c>
       <c r="AB2" t="n">
-        <v>3857.337906652917</v>
+        <v>4093.909721182443</v>
       </c>
       <c r="AC2" t="n">
-        <v>3489.198990649571</v>
+        <v>3703.192723231017</v>
       </c>
       <c r="AD2" t="n">
-        <v>2819188.373658466</v>
+        <v>2992090.132642719</v>
       </c>
       <c r="AE2" t="n">
-        <v>3857337.906652917</v>
+        <v>4093909.721182443</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.057707763868845e-07</v>
+        <v>1.04221723669869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.29012345679012</v>
       </c>
       <c r="AH2" t="n">
-        <v>3489198.990649571</v>
+        <v>3703192.723231017</v>
       </c>
     </row>
     <row r="3">
@@ -11944,28 +11944,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1783.838625464106</v>
+        <v>1916.122809834315</v>
       </c>
       <c r="AB3" t="n">
-        <v>2440.726704765961</v>
+        <v>2621.723761787614</v>
       </c>
       <c r="AC3" t="n">
-        <v>2207.787173644542</v>
+        <v>2371.510125575013</v>
       </c>
       <c r="AD3" t="n">
-        <v>1783838.625464106</v>
+        <v>1916122.809834315</v>
       </c>
       <c r="AE3" t="n">
-        <v>2440726.704765961</v>
+        <v>2621723.761787613</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.14568134028724e-07</v>
+        <v>1.40144916665314e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.50154320987654</v>
       </c>
       <c r="AH3" t="n">
-        <v>2207787.173644542</v>
+        <v>2371510.125575013</v>
       </c>
     </row>
     <row r="4">
@@ -12050,28 +12050,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1545.037706852715</v>
+        <v>1666.975592532315</v>
       </c>
       <c r="AB4" t="n">
-        <v>2113.98875276886</v>
+        <v>2280.829547475539</v>
       </c>
       <c r="AC4" t="n">
-        <v>1912.232633206449</v>
+        <v>2063.150376628848</v>
       </c>
       <c r="AD4" t="n">
-        <v>1545037.706852715</v>
+        <v>1666975.592532316</v>
       </c>
       <c r="AE4" t="n">
-        <v>2113988.75276886</v>
+        <v>2280829.547475539</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.94576610938413e-07</v>
+        <v>1.539102247600101e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.22145061728395</v>
       </c>
       <c r="AH4" t="n">
-        <v>1912232.633206449</v>
+        <v>2063150.376628848</v>
       </c>
     </row>
     <row r="5">
@@ -12156,28 +12156,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1435.267530583661</v>
+        <v>1547.115050627818</v>
       </c>
       <c r="AB5" t="n">
-        <v>1963.796354879146</v>
+        <v>2116.831066167896</v>
       </c>
       <c r="AC5" t="n">
-        <v>1776.374386974975</v>
+        <v>1914.803680203892</v>
       </c>
       <c r="AD5" t="n">
-        <v>1435267.530583661</v>
+        <v>1547115.050627818</v>
       </c>
       <c r="AE5" t="n">
-        <v>1963796.354879146</v>
+        <v>2116831.066167896</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.362499360582643e-07</v>
+        <v>1.610800420314063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.1875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1776374.386974975</v>
+        <v>1914803.680203892</v>
       </c>
     </row>
     <row r="6">
@@ -12262,28 +12262,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1359.731688684694</v>
+        <v>1471.664460074871</v>
       </c>
       <c r="AB6" t="n">
-        <v>1860.444883586825</v>
+        <v>2013.596239528223</v>
       </c>
       <c r="AC6" t="n">
-        <v>1682.886635048091</v>
+        <v>1821.42144052772</v>
       </c>
       <c r="AD6" t="n">
-        <v>1359731.688684694</v>
+        <v>1471664.460074871</v>
       </c>
       <c r="AE6" t="n">
-        <v>1860444.883586825</v>
+        <v>2013596.239528223</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.637629452782181e-07</v>
+        <v>1.65813603563297e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.55092592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>1682886.635048091</v>
+        <v>1821421.44052772</v>
       </c>
     </row>
     <row r="7">
@@ -12368,28 +12368,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1316.001655345505</v>
+        <v>1427.763834535089</v>
       </c>
       <c r="AB7" t="n">
-        <v>1800.611522739233</v>
+        <v>1953.529466905785</v>
       </c>
       <c r="AC7" t="n">
-        <v>1628.763686183145</v>
+        <v>1767.087356380122</v>
       </c>
       <c r="AD7" t="n">
-        <v>1316001.655345505</v>
+        <v>1427763.834535089</v>
       </c>
       <c r="AE7" t="n">
-        <v>1800611.522739233</v>
+        <v>1953529.466905785</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.816383250453894e-07</v>
+        <v>1.688890290595548e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.16126543209877</v>
       </c>
       <c r="AH7" t="n">
-        <v>1628763.686183145</v>
+        <v>1767087.356380122</v>
       </c>
     </row>
     <row r="8">
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1272.031976079848</v>
+        <v>1383.879406615453</v>
       </c>
       <c r="AB8" t="n">
-        <v>1740.450267762617</v>
+        <v>1893.484856581817</v>
       </c>
       <c r="AC8" t="n">
-        <v>1574.344136944645</v>
+        <v>1712.773319392336</v>
       </c>
       <c r="AD8" t="n">
-        <v>1272031.976079848</v>
+        <v>1383879.406615454</v>
       </c>
       <c r="AE8" t="n">
-        <v>1740450.267762617</v>
+        <v>1893484.856581817</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.945602863228628e-07</v>
+        <v>1.711122282134761e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.88734567901234</v>
       </c>
       <c r="AH8" t="n">
-        <v>1574344.136944645</v>
+        <v>1712773.319392336</v>
       </c>
     </row>
     <row r="9">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1245.394241349917</v>
+        <v>1357.241671885523</v>
       </c>
       <c r="AB9" t="n">
-        <v>1704.003343931209</v>
+        <v>1857.03793275041</v>
       </c>
       <c r="AC9" t="n">
-        <v>1541.375656370128</v>
+        <v>1679.804838817818</v>
       </c>
       <c r="AD9" t="n">
-        <v>1245394.241349917</v>
+        <v>1357241.671885523</v>
       </c>
       <c r="AE9" t="n">
-        <v>1704003.343931209</v>
+        <v>1857037.93275041</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.003282610185157e-06</v>
+        <v>1.72612887642373e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.70216049382716</v>
       </c>
       <c r="AH9" t="n">
-        <v>1541375.656370128</v>
+        <v>1679804.838817818</v>
       </c>
     </row>
     <row r="10">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1218.079292092118</v>
+        <v>1329.926722627723</v>
       </c>
       <c r="AB10" t="n">
-        <v>1666.629825306174</v>
+        <v>1819.664414125375</v>
       </c>
       <c r="AC10" t="n">
-        <v>1507.569013908603</v>
+        <v>1645.998196356294</v>
       </c>
       <c r="AD10" t="n">
-        <v>1218079.292092118</v>
+        <v>1329926.722627723</v>
       </c>
       <c r="AE10" t="n">
-        <v>1666629.825306174</v>
+        <v>1819664.414125375</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.012112617058098e-06</v>
+        <v>1.741320737308859e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.52469135802469</v>
       </c>
       <c r="AH10" t="n">
-        <v>1507569.013908603</v>
+        <v>1645998.196356294</v>
       </c>
     </row>
     <row r="11">
@@ -12792,28 +12792,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1192.716329170758</v>
+        <v>1294.388142724898</v>
       </c>
       <c r="AB11" t="n">
-        <v>1631.927100502216</v>
+        <v>1771.038961250839</v>
       </c>
       <c r="AC11" t="n">
-        <v>1476.178268454355</v>
+        <v>1602.013488457852</v>
       </c>
       <c r="AD11" t="n">
-        <v>1192716.329170758</v>
+        <v>1294388.142724898</v>
       </c>
       <c r="AE11" t="n">
-        <v>1631927.100502216</v>
+        <v>1771038.961250839</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.017981341138283e-06</v>
+        <v>1.751417766799585e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.4050925925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>1476178.268454355</v>
+        <v>1602013.488457852</v>
       </c>
     </row>
     <row r="12">
@@ -12898,28 +12898,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1172.014720618595</v>
+        <v>1273.686534172735</v>
       </c>
       <c r="AB12" t="n">
-        <v>1603.602246390635</v>
+        <v>1742.714107139257</v>
       </c>
       <c r="AC12" t="n">
-        <v>1450.556698665</v>
+        <v>1576.391918668496</v>
       </c>
       <c r="AD12" t="n">
-        <v>1172014.720618595</v>
+        <v>1273686.534172735</v>
       </c>
       <c r="AE12" t="n">
-        <v>1603602.246390635</v>
+        <v>1742714.107139257</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.023796223713146e-06</v>
+        <v>1.761422162992231e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.28935185185185</v>
       </c>
       <c r="AH12" t="n">
-        <v>1450556.698665</v>
+        <v>1576391.918668496</v>
       </c>
     </row>
     <row r="13">
@@ -13004,28 +13004,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1151.346083799131</v>
+        <v>1253.017897353271</v>
       </c>
       <c r="AB13" t="n">
-        <v>1575.322505658341</v>
+        <v>1714.434366406963</v>
       </c>
       <c r="AC13" t="n">
-        <v>1424.975936697332</v>
+        <v>1550.811156700828</v>
       </c>
       <c r="AD13" t="n">
-        <v>1151346.083799131</v>
+        <v>1253017.897353271</v>
       </c>
       <c r="AE13" t="n">
-        <v>1575322.505658341</v>
+        <v>1714434.366406963</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.027942019623002e-06</v>
+        <v>1.768554926944395e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.20833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1424975.936697332</v>
+        <v>1550811.156700828</v>
       </c>
     </row>
     <row r="14">
@@ -13110,28 +13110,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1132.018339925216</v>
+        <v>1233.690153479356</v>
       </c>
       <c r="AB14" t="n">
-        <v>1548.877433810171</v>
+        <v>1687.989294558793</v>
       </c>
       <c r="AC14" t="n">
-        <v>1401.054745390459</v>
+        <v>1526.889965393955</v>
       </c>
       <c r="AD14" t="n">
-        <v>1132018.339925216</v>
+        <v>1233690.153479356</v>
       </c>
       <c r="AE14" t="n">
-        <v>1548877.433810171</v>
+        <v>1687989.294558793</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.031441717468985e-06</v>
+        <v>1.774576091319599e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.13888888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>1401054.745390459</v>
+        <v>1526889.965393955</v>
       </c>
     </row>
     <row r="15">
@@ -13216,28 +13216,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1121.695806029941</v>
+        <v>1223.367619584081</v>
       </c>
       <c r="AB15" t="n">
-        <v>1534.753687536601</v>
+        <v>1673.865548285223</v>
       </c>
       <c r="AC15" t="n">
-        <v>1388.278949638436</v>
+        <v>1514.114169641932</v>
       </c>
       <c r="AD15" t="n">
-        <v>1121695.806029941</v>
+        <v>1223367.619584081</v>
       </c>
       <c r="AE15" t="n">
-        <v>1534753.687536601</v>
+        <v>1673865.548285223</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.033541536176574e-06</v>
+        <v>1.778188789944721e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.09645061728395</v>
       </c>
       <c r="AH15" t="n">
-        <v>1388278.949638436</v>
+        <v>1514114.169641932</v>
       </c>
     </row>
     <row r="16">
@@ -13322,28 +13322,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1117.005932520822</v>
+        <v>1218.677746074962</v>
       </c>
       <c r="AB16" t="n">
-        <v>1528.336795698807</v>
+        <v>1667.448656447429</v>
       </c>
       <c r="AC16" t="n">
-        <v>1382.474476951477</v>
+        <v>1508.309696954974</v>
       </c>
       <c r="AD16" t="n">
-        <v>1117005.932520822</v>
+        <v>1218677.746074962</v>
       </c>
       <c r="AE16" t="n">
-        <v>1528336.795698807</v>
+        <v>1667448.656447429</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.034403000261739e-06</v>
+        <v>1.779670922714002e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.08101851851852</v>
       </c>
       <c r="AH16" t="n">
-        <v>1382474.476951477</v>
+        <v>1508309.696954974</v>
       </c>
     </row>
     <row r="17">
@@ -13428,28 +13428,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1121.629457460693</v>
+        <v>1223.301271014833</v>
       </c>
       <c r="AB17" t="n">
-        <v>1534.662906497062</v>
+        <v>1673.774767245684</v>
       </c>
       <c r="AC17" t="n">
-        <v>1388.196832613899</v>
+        <v>1514.032052617395</v>
       </c>
       <c r="AD17" t="n">
-        <v>1121629.457460693</v>
+        <v>1223301.271014833</v>
       </c>
       <c r="AE17" t="n">
-        <v>1534662.906497062</v>
+        <v>1673774.767245684</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.034456841767062e-06</v>
+        <v>1.779763556012082e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.08101851851852</v>
       </c>
       <c r="AH17" t="n">
-        <v>1388196.832613899</v>
+        <v>1514032.052617395</v>
       </c>
     </row>
   </sheetData>
@@ -13725,28 +13725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>789.8796900935055</v>
+        <v>884.586669059619</v>
       </c>
       <c r="AB2" t="n">
-        <v>1080.748239018481</v>
+        <v>1210.330505816949</v>
       </c>
       <c r="AC2" t="n">
-        <v>977.6031439262371</v>
+        <v>1094.818261051312</v>
       </c>
       <c r="AD2" t="n">
-        <v>789879.6900935054</v>
+        <v>884586.669059619</v>
       </c>
       <c r="AE2" t="n">
-        <v>1080748.239018481</v>
+        <v>1210330.505816949</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.109960132644578e-06</v>
+        <v>2.22509309752507e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>977603.143926237</v>
+        <v>1094818.261051313</v>
       </c>
     </row>
     <row r="3">
@@ -13831,28 +13831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>676.9142825254382</v>
+        <v>771.6211719830006</v>
       </c>
       <c r="AB3" t="n">
-        <v>926.1839847018009</v>
+        <v>1055.76612903072</v>
       </c>
       <c r="AC3" t="n">
-        <v>837.790285109247</v>
+        <v>955.0052914530959</v>
       </c>
       <c r="AD3" t="n">
-        <v>676914.2825254382</v>
+        <v>771621.1719830006</v>
       </c>
       <c r="AE3" t="n">
-        <v>926183.9847018009</v>
+        <v>1055766.12903072</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.185864755671126e-06</v>
+        <v>2.377256087707616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.96450617283951</v>
       </c>
       <c r="AH3" t="n">
-        <v>837790.285109247</v>
+        <v>955005.2914530959</v>
       </c>
     </row>
     <row r="4">
@@ -13937,28 +13937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>682.4549629685744</v>
+        <v>777.1618524261368</v>
       </c>
       <c r="AB4" t="n">
-        <v>933.7649881216695</v>
+        <v>1063.347132450589</v>
       </c>
       <c r="AC4" t="n">
-        <v>844.6477682027283</v>
+        <v>961.8627745465772</v>
       </c>
       <c r="AD4" t="n">
-        <v>682454.9629685744</v>
+        <v>777161.8524261367</v>
       </c>
       <c r="AE4" t="n">
-        <v>933764.9881216695</v>
+        <v>1063347.132450589</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.186895718292878e-06</v>
+        <v>2.379322817625206e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.94521604938272</v>
       </c>
       <c r="AH4" t="n">
-        <v>844647.7682027284</v>
+        <v>961862.7745465771</v>
       </c>
     </row>
   </sheetData>
@@ -14234,28 +14234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2079.321971758231</v>
+        <v>2226.450496576937</v>
       </c>
       <c r="AB2" t="n">
-        <v>2845.020054970799</v>
+        <v>3046.327793480341</v>
       </c>
       <c r="AC2" t="n">
-        <v>2573.495333935111</v>
+        <v>2755.590544418374</v>
       </c>
       <c r="AD2" t="n">
-        <v>2079321.971758231</v>
+        <v>2226450.496576936</v>
       </c>
       <c r="AE2" t="n">
-        <v>2845020.054970799</v>
+        <v>3046327.793480341</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.178396255106331e-07</v>
+        <v>1.271347317216508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.08487654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>2573495.333935111</v>
+        <v>2755590.544418374</v>
       </c>
     </row>
     <row r="3">
@@ -14340,28 +14340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1434.342132331353</v>
+        <v>1561.756723298304</v>
       </c>
       <c r="AB3" t="n">
-        <v>1962.530184164649</v>
+        <v>2136.864448660665</v>
       </c>
       <c r="AC3" t="n">
-        <v>1775.229057816387</v>
+        <v>1932.92510478858</v>
       </c>
       <c r="AD3" t="n">
-        <v>1434342.132331353</v>
+        <v>1561756.723298304</v>
       </c>
       <c r="AE3" t="n">
-        <v>1962530.184164649</v>
+        <v>2136864.448660665</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.052481615531783e-07</v>
+        <v>1.603261760295178e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1775229.057816387</v>
+        <v>1932925.10478858</v>
       </c>
     </row>
     <row r="4">
@@ -14446,28 +14446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1278.188523511707</v>
+        <v>1386.060041353152</v>
       </c>
       <c r="AB4" t="n">
-        <v>1748.873927566591</v>
+        <v>1896.468497232751</v>
       </c>
       <c r="AC4" t="n">
-        <v>1581.963854479608</v>
+        <v>1715.47220556711</v>
       </c>
       <c r="AD4" t="n">
-        <v>1278188.523511707</v>
+        <v>1386060.041353151</v>
       </c>
       <c r="AE4" t="n">
-        <v>1748873.92756659</v>
+        <v>1896468.497232751</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.731473712961914e-07</v>
+        <v>1.723516306129834e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.19135802469136</v>
       </c>
       <c r="AH4" t="n">
-        <v>1581963.854479608</v>
+        <v>1715472.20556711</v>
       </c>
     </row>
     <row r="5">
@@ -14552,28 +14552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1191.971372317054</v>
+        <v>1299.757549303926</v>
       </c>
       <c r="AB5" t="n">
-        <v>1630.907817669802</v>
+        <v>1778.385620213764</v>
       </c>
       <c r="AC5" t="n">
-        <v>1475.256264544894</v>
+        <v>1608.658992600456</v>
       </c>
       <c r="AD5" t="n">
-        <v>1191971.372317054</v>
+        <v>1299757.549303926</v>
       </c>
       <c r="AE5" t="n">
-        <v>1630907.817669802</v>
+        <v>1778385.620213764</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.009811825032113e-06</v>
+        <v>1.788451778118045e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.38503086419753</v>
       </c>
       <c r="AH5" t="n">
-        <v>1475256.264544894</v>
+        <v>1608658.992600457</v>
       </c>
     </row>
     <row r="6">
@@ -14658,28 +14658,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1131.76134649403</v>
+        <v>1239.632774826923</v>
       </c>
       <c r="AB6" t="n">
-        <v>1548.525804059871</v>
+        <v>1696.120251256483</v>
       </c>
       <c r="AC6" t="n">
-        <v>1400.736674690012</v>
+        <v>1534.244914996287</v>
       </c>
       <c r="AD6" t="n">
-        <v>1131761.34649403</v>
+        <v>1239632.774826922</v>
       </c>
       <c r="AE6" t="n">
-        <v>1548525.804059871</v>
+        <v>1696120.251256483</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.031978426069404e-06</v>
+        <v>1.82771047568649e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.92592592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>1400736.674690012</v>
+        <v>1534244.914996287</v>
       </c>
     </row>
     <row r="7">
@@ -14764,28 +14764,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1092.937890385702</v>
+        <v>1200.809318718595</v>
       </c>
       <c r="AB7" t="n">
-        <v>1495.405838642456</v>
+        <v>1643.000285839068</v>
       </c>
       <c r="AC7" t="n">
-        <v>1352.686404217695</v>
+        <v>1486.19464452397</v>
       </c>
       <c r="AD7" t="n">
-        <v>1092937.890385702</v>
+        <v>1200809.318718595</v>
       </c>
       <c r="AE7" t="n">
-        <v>1495405.838642456</v>
+        <v>1643000.285839068</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.047092017685738e-06</v>
+        <v>1.854477769483157e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1352686.404217695</v>
+        <v>1486194.64452397</v>
       </c>
     </row>
     <row r="8">
@@ -14870,28 +14870,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1060.074031442444</v>
+        <v>1158.131297539573</v>
       </c>
       <c r="AB8" t="n">
-        <v>1450.440056985158</v>
+        <v>1584.606334440518</v>
       </c>
       <c r="AC8" t="n">
-        <v>1312.012093651899</v>
+        <v>1433.373729890473</v>
       </c>
       <c r="AD8" t="n">
-        <v>1060074.031442444</v>
+        <v>1158131.297539573</v>
       </c>
       <c r="AE8" t="n">
-        <v>1450440.056985158</v>
+        <v>1584606.334440518</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.058623128326349e-06</v>
+        <v>1.874900223268762e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.40123456790123</v>
       </c>
       <c r="AH8" t="n">
-        <v>1312012.093651899</v>
+        <v>1433373.729890472</v>
       </c>
     </row>
     <row r="9">
@@ -14976,28 +14976,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1028.601420866857</v>
+        <v>1126.658686963986</v>
       </c>
       <c r="AB9" t="n">
-        <v>1407.377842722056</v>
+        <v>1541.544120177415</v>
       </c>
       <c r="AC9" t="n">
-        <v>1273.05967667987</v>
+        <v>1394.421312918443</v>
       </c>
       <c r="AD9" t="n">
-        <v>1028601.420866857</v>
+        <v>1126658.686963986</v>
       </c>
       <c r="AE9" t="n">
-        <v>1407377.842722056</v>
+        <v>1541544.120177415</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.066683710521727e-06</v>
+        <v>1.889176113293651e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.24691358024691</v>
       </c>
       <c r="AH9" t="n">
-        <v>1273059.67667987</v>
+        <v>1394421.312918443</v>
       </c>
     </row>
     <row r="10">
@@ -15082,28 +15082,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1006.170205417249</v>
+        <v>1104.227471514378</v>
       </c>
       <c r="AB10" t="n">
-        <v>1376.686464148518</v>
+        <v>1510.852741603878</v>
       </c>
       <c r="AC10" t="n">
-        <v>1245.297440201771</v>
+        <v>1366.659076440344</v>
       </c>
       <c r="AD10" t="n">
-        <v>1006170.205417249</v>
+        <v>1104227.471514378</v>
       </c>
       <c r="AE10" t="n">
-        <v>1376686.464148518</v>
+        <v>1510852.741603878</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.071497669332856e-06</v>
+        <v>1.897701992058515e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.15432098765432</v>
       </c>
       <c r="AH10" t="n">
-        <v>1245297.440201771</v>
+        <v>1366659.076440344</v>
       </c>
     </row>
     <row r="11">
@@ -15188,28 +15188,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1001.670189646816</v>
+        <v>1099.727455743945</v>
       </c>
       <c r="AB11" t="n">
-        <v>1370.529344044728</v>
+        <v>1504.695621500087</v>
       </c>
       <c r="AC11" t="n">
-        <v>1239.727946999114</v>
+        <v>1361.089583237687</v>
       </c>
       <c r="AD11" t="n">
-        <v>1001670.189646816</v>
+        <v>1099727.455743945</v>
       </c>
       <c r="AE11" t="n">
-        <v>1370529.344044728</v>
+        <v>1504695.621500087</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.073232933555472e-06</v>
+        <v>1.900775273938873e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.12345679012346</v>
       </c>
       <c r="AH11" t="n">
-        <v>1239727.946999114</v>
+        <v>1361089.583237687</v>
       </c>
     </row>
     <row r="12">
@@ -15294,28 +15294,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1006.162108939992</v>
+        <v>1104.21937503712</v>
       </c>
       <c r="AB12" t="n">
-        <v>1376.675386191143</v>
+        <v>1510.841663646503</v>
       </c>
       <c r="AC12" t="n">
-        <v>1245.2874195091</v>
+        <v>1366.649055747673</v>
       </c>
       <c r="AD12" t="n">
-        <v>1006162.108939992</v>
+        <v>1104219.37503712</v>
       </c>
       <c r="AE12" t="n">
-        <v>1376675.386191143</v>
+        <v>1510841.663646503</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.073065004759735e-06</v>
+        <v>1.900477859563355e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.12345679012346</v>
       </c>
       <c r="AH12" t="n">
-        <v>1245287.4195091</v>
+        <v>1366649.055747673</v>
       </c>
     </row>
   </sheetData>
@@ -15591,28 +15591,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2427.57380546654</v>
+        <v>2587.52362122173</v>
       </c>
       <c r="AB2" t="n">
-        <v>3321.51357763728</v>
+        <v>3540.363972041393</v>
       </c>
       <c r="AC2" t="n">
-        <v>3004.512983561037</v>
+        <v>3202.476603481671</v>
       </c>
       <c r="AD2" t="n">
-        <v>2427573.80546654</v>
+        <v>2587523.62122173</v>
       </c>
       <c r="AE2" t="n">
-        <v>3321513.57763728</v>
+        <v>3540363.972041393</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.593536568913549e-07</v>
+        <v>1.149855203381812e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.09104938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>3004512.983561037</v>
+        <v>3202476.603481671</v>
       </c>
     </row>
     <row r="3">
@@ -15697,28 +15697,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1604.86599736623</v>
+        <v>1734.809148531391</v>
       </c>
       <c r="AB3" t="n">
-        <v>2195.848459287346</v>
+        <v>2373.642411398757</v>
       </c>
       <c r="AC3" t="n">
-        <v>1986.27976422563</v>
+        <v>2147.105311082907</v>
       </c>
       <c r="AD3" t="n">
-        <v>1604865.99736623</v>
+        <v>1734809.148531391</v>
       </c>
       <c r="AE3" t="n">
-        <v>2195848.459287346</v>
+        <v>2373642.411398757</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.584431407139817e-07</v>
+        <v>1.49704987883315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.64891975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>1986279.76422563</v>
+        <v>2147105.311082907</v>
       </c>
     </row>
     <row r="4">
@@ -15803,28 +15803,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1404.735507629101</v>
+        <v>1524.676467100437</v>
       </c>
       <c r="AB4" t="n">
-        <v>1922.021094094929</v>
+        <v>2086.129606265293</v>
       </c>
       <c r="AC4" t="n">
-        <v>1738.586098448056</v>
+        <v>1887.032324544624</v>
       </c>
       <c r="AD4" t="n">
-        <v>1404735.507629101</v>
+        <v>1524676.467100437</v>
       </c>
       <c r="AE4" t="n">
-        <v>1922021.094094929</v>
+        <v>2086129.606265293</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.329234489870195e-07</v>
+        <v>1.626937032900069e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.68132716049383</v>
       </c>
       <c r="AH4" t="n">
-        <v>1738586.098448056</v>
+        <v>1887032.324544624</v>
       </c>
     </row>
     <row r="5">
@@ -15909,28 +15909,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1306.748257458505</v>
+        <v>1416.772366090587</v>
       </c>
       <c r="AB5" t="n">
-        <v>1787.950615519136</v>
+        <v>1938.490454870651</v>
       </c>
       <c r="AC5" t="n">
-        <v>1617.311118178439</v>
+        <v>1753.483646546236</v>
       </c>
       <c r="AD5" t="n">
-        <v>1306748.257458505</v>
+        <v>1416772.366090587</v>
       </c>
       <c r="AE5" t="n">
-        <v>1787950.615519136</v>
+        <v>1938490.454870651</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.724671178123951e-07</v>
+        <v>1.695897738409825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.75925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1617311.118178439</v>
+        <v>1753483.646546236</v>
       </c>
     </row>
     <row r="6">
@@ -16015,28 +16015,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1253.27732612442</v>
+        <v>1363.13084255591</v>
       </c>
       <c r="AB6" t="n">
-        <v>1714.78932829684</v>
+        <v>1865.095755873507</v>
       </c>
       <c r="AC6" t="n">
-        <v>1551.132241526126</v>
+        <v>1687.093634611273</v>
       </c>
       <c r="AD6" t="n">
-        <v>1253277.32612442</v>
+        <v>1363130.84255591</v>
       </c>
       <c r="AE6" t="n">
-        <v>1714789.32829684</v>
+        <v>1865095.755873507</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.963249485184125e-07</v>
+        <v>1.737503711914325e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.23842592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>1551132.241526126</v>
+        <v>1687093.634611273</v>
       </c>
     </row>
     <row r="7">
@@ -16121,28 +16121,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1201.619539174051</v>
+        <v>1311.558306951562</v>
       </c>
       <c r="AB7" t="n">
-        <v>1644.108865210627</v>
+        <v>1794.531937439944</v>
       </c>
       <c r="AC7" t="n">
-        <v>1487.197422636209</v>
+        <v>1623.264327972068</v>
       </c>
       <c r="AD7" t="n">
-        <v>1201619.539174051</v>
+        <v>1311558.306951562</v>
       </c>
       <c r="AE7" t="n">
-        <v>1644108.865210627</v>
+        <v>1794531.937439944</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.01294316163088e-06</v>
+        <v>1.76648442449332e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.88734567901234</v>
       </c>
       <c r="AH7" t="n">
-        <v>1487197.422636209</v>
+        <v>1623264.327972068</v>
       </c>
     </row>
     <row r="8">
@@ -16227,28 +16227,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1167.323384370683</v>
+        <v>1277.262152148194</v>
       </c>
       <c r="AB8" t="n">
-        <v>1597.183353169094</v>
+        <v>1747.606425398411</v>
       </c>
       <c r="AC8" t="n">
-        <v>1444.75041560355</v>
+        <v>1580.817320939409</v>
       </c>
       <c r="AD8" t="n">
-        <v>1167323.384370683</v>
+        <v>1277262.152148193</v>
       </c>
       <c r="AE8" t="n">
-        <v>1597183.353169094</v>
+        <v>1747606.425398411</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.025667338007422e-06</v>
+        <v>1.788674277029053e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.62885802469136</v>
       </c>
       <c r="AH8" t="n">
-        <v>1444750.41560355</v>
+        <v>1580817.320939409</v>
       </c>
     </row>
     <row r="9">
@@ -16333,28 +16333,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1139.892829986501</v>
+        <v>1249.661005563419</v>
       </c>
       <c r="AB9" t="n">
-        <v>1559.651658510003</v>
+        <v>1709.841318964474</v>
       </c>
       <c r="AC9" t="n">
-        <v>1410.800693206659</v>
+        <v>1546.656463259867</v>
       </c>
       <c r="AD9" t="n">
-        <v>1139892.829986501</v>
+        <v>1249661.005563419</v>
       </c>
       <c r="AE9" t="n">
-        <v>1559651.658510003</v>
+        <v>1709841.318964474</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.03411355853323e-06</v>
+        <v>1.803403748108807e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.46296296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>1410800.693206659</v>
+        <v>1546656.463259867</v>
       </c>
     </row>
     <row r="10">
@@ -16439,28 +16439,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1111.269025573956</v>
+        <v>1211.205691166192</v>
       </c>
       <c r="AB10" t="n">
-        <v>1520.487306519634</v>
+        <v>1657.225061277453</v>
       </c>
       <c r="AC10" t="n">
-        <v>1375.374132002737</v>
+        <v>1499.061827359114</v>
       </c>
       <c r="AD10" t="n">
-        <v>1111269.025573957</v>
+        <v>1211205.691166192</v>
       </c>
       <c r="AE10" t="n">
-        <v>1520487.306519634</v>
+        <v>1657225.061277453</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.041298330538951e-06</v>
+        <v>1.815933363118208e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.32021604938272</v>
       </c>
       <c r="AH10" t="n">
-        <v>1375374.132002737</v>
+        <v>1499061.827359114</v>
       </c>
     </row>
     <row r="11">
@@ -16545,28 +16545,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1088.439982260708</v>
+        <v>1188.376647852944</v>
       </c>
       <c r="AB11" t="n">
-        <v>1489.251602312136</v>
+        <v>1625.989357069956</v>
       </c>
       <c r="AC11" t="n">
-        <v>1347.119519565217</v>
+        <v>1470.807214921594</v>
       </c>
       <c r="AD11" t="n">
-        <v>1088439.982260708</v>
+        <v>1188376.647852944</v>
       </c>
       <c r="AE11" t="n">
-        <v>1489251.602312136</v>
+        <v>1625989.357069955</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.047221654024582e-06</v>
+        <v>1.826263122057256e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.20447530864197</v>
       </c>
       <c r="AH11" t="n">
-        <v>1347119.519565217</v>
+        <v>1470807.214921594</v>
       </c>
     </row>
     <row r="12">
@@ -16651,28 +16651,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1067.444969542721</v>
+        <v>1167.381635134956</v>
       </c>
       <c r="AB12" t="n">
-        <v>1460.525299676796</v>
+        <v>1597.263054434615</v>
       </c>
       <c r="AC12" t="n">
-        <v>1321.134814935775</v>
+        <v>1444.822510292151</v>
       </c>
       <c r="AD12" t="n">
-        <v>1067444.969542721</v>
+        <v>1167381.635134957</v>
       </c>
       <c r="AE12" t="n">
-        <v>1460525.299676796</v>
+        <v>1597263.054434615</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.050293006943058e-06</v>
+        <v>1.831619293358985e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.14660493827161</v>
       </c>
       <c r="AH12" t="n">
-        <v>1321134.814935775</v>
+        <v>1444822.510292151</v>
       </c>
     </row>
     <row r="13">
@@ -16757,28 +16757,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1062.819596659667</v>
+        <v>1162.756262251904</v>
       </c>
       <c r="AB13" t="n">
-        <v>1454.196660441153</v>
+        <v>1590.934415198971</v>
       </c>
       <c r="AC13" t="n">
-        <v>1315.41017214648</v>
+        <v>1439.097867502857</v>
       </c>
       <c r="AD13" t="n">
-        <v>1062819.596659668</v>
+        <v>1162756.262251904</v>
       </c>
       <c r="AE13" t="n">
-        <v>1454196.660441153</v>
+        <v>1590934.415198972</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.052431984868425e-06</v>
+        <v>1.835349484086974e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1315410.17214648</v>
+        <v>1439097.867502857</v>
       </c>
     </row>
     <row r="14">
@@ -16863,28 +16863,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1065.953328719364</v>
+        <v>1165.8899943116</v>
       </c>
       <c r="AB14" t="n">
-        <v>1458.48437089573</v>
+        <v>1595.222125653549</v>
       </c>
       <c r="AC14" t="n">
-        <v>1319.288669533112</v>
+        <v>1442.976364889489</v>
       </c>
       <c r="AD14" t="n">
-        <v>1065953.328719364</v>
+        <v>1165889.9943116</v>
       </c>
       <c r="AE14" t="n">
-        <v>1458484.37089573</v>
+        <v>1595222.125653549</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.051938374577956e-06</v>
+        <v>1.834488670842053e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.11574074074074</v>
       </c>
       <c r="AH14" t="n">
-        <v>1319288.669533112</v>
+        <v>1442976.364889489</v>
       </c>
     </row>
     <row r="15">
@@ -16969,28 +16969,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1068.840138508508</v>
+        <v>1168.776804100744</v>
       </c>
       <c r="AB15" t="n">
-        <v>1462.434231406297</v>
+        <v>1599.171986164116</v>
       </c>
       <c r="AC15" t="n">
-        <v>1322.861560900214</v>
+        <v>1446.549256256591</v>
       </c>
       <c r="AD15" t="n">
-        <v>1068840.138508508</v>
+        <v>1168776.804100744</v>
       </c>
       <c r="AE15" t="n">
-        <v>1462434.231406297</v>
+        <v>1599171.986164116</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.052048065753616e-06</v>
+        <v>1.834679962674258e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.11188271604938</v>
       </c>
       <c r="AH15" t="n">
-        <v>1322861.560900214</v>
+        <v>1446549.256256591</v>
       </c>
     </row>
   </sheetData>
@@ -17266,28 +17266,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3254.061035127433</v>
+        <v>3450.386775425999</v>
       </c>
       <c r="AB2" t="n">
-        <v>4452.349867302588</v>
+        <v>4720.971406459483</v>
       </c>
       <c r="AC2" t="n">
-        <v>4027.423844879347</v>
+        <v>4270.408521351795</v>
       </c>
       <c r="AD2" t="n">
-        <v>3254061.035127433</v>
+        <v>3450386.775425998</v>
       </c>
       <c r="AE2" t="n">
-        <v>4452349.867302588</v>
+        <v>4720971.406459482</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.573336625591898e-07</v>
+        <v>9.474302882937049e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.64351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>4027423.844879347</v>
+        <v>4270408.521351795</v>
       </c>
     </row>
     <row r="3">
@@ -17372,28 +17372,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1966.743559587948</v>
+        <v>2101.044837451969</v>
       </c>
       <c r="AB3" t="n">
-        <v>2690.985304830399</v>
+        <v>2874.74223815817</v>
       </c>
       <c r="AC3" t="n">
-        <v>2434.161444158981</v>
+        <v>2600.380873674426</v>
       </c>
       <c r="AD3" t="n">
-        <v>1966743.559587948</v>
+        <v>2101044.837451969</v>
       </c>
       <c r="AE3" t="n">
-        <v>2690985.304830399</v>
+        <v>2874742.23815817</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.747509642433267e-07</v>
+        <v>1.317025291525301e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.36188271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>2434161.444158982</v>
+        <v>2600380.873674426</v>
       </c>
     </row>
     <row r="4">
@@ -17478,28 +17478,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1676.621208631399</v>
+        <v>1810.837056132298</v>
       </c>
       <c r="AB4" t="n">
-        <v>2294.027104956855</v>
+        <v>2477.667148692879</v>
       </c>
       <c r="AC4" t="n">
-        <v>2075.088377747036</v>
+        <v>2241.202073449314</v>
       </c>
       <c r="AD4" t="n">
-        <v>1676621.2086314</v>
+        <v>1810837.056132298</v>
       </c>
       <c r="AE4" t="n">
-        <v>2294027.104956855</v>
+        <v>2477667.148692879</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.593991905381732e-07</v>
+        <v>1.460921666048633e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.76543209876543</v>
       </c>
       <c r="AH4" t="n">
-        <v>2075088.377747036</v>
+        <v>2241202.073449314</v>
       </c>
     </row>
     <row r="5">
@@ -17584,28 +17584,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1550.025372294141</v>
+        <v>1673.989135325762</v>
       </c>
       <c r="AB5" t="n">
-        <v>2120.813096666089</v>
+        <v>2290.425786141202</v>
       </c>
       <c r="AC5" t="n">
-        <v>1918.405671300153</v>
+        <v>2071.830763744667</v>
       </c>
       <c r="AD5" t="n">
-        <v>1550025.372294141</v>
+        <v>1673989.135325762</v>
       </c>
       <c r="AE5" t="n">
-        <v>2120813.096666089</v>
+        <v>2290425.786141202</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.040261165960568e-07</v>
+        <v>1.53678448263598e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.5925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1918405.671300153</v>
+        <v>2071830.763744667</v>
       </c>
     </row>
     <row r="6">
@@ -17690,28 +17690,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1467.744157292038</v>
+        <v>1591.622579469087</v>
       </c>
       <c r="AB6" t="n">
-        <v>2008.232308309198</v>
+        <v>2177.728230662114</v>
       </c>
       <c r="AC6" t="n">
-        <v>1816.569435375915</v>
+        <v>1969.888904788489</v>
       </c>
       <c r="AD6" t="n">
-        <v>1467744.157292038</v>
+        <v>1591622.579469087</v>
       </c>
       <c r="AE6" t="n">
-        <v>2008232.308309198</v>
+        <v>2177728.230662114</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.328774507615922e-07</v>
+        <v>1.58582983855544e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.89429012345679</v>
       </c>
       <c r="AH6" t="n">
-        <v>1816569.435375915</v>
+        <v>1969888.904788489</v>
       </c>
     </row>
     <row r="7">
@@ -17796,28 +17796,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1420.373569774917</v>
+        <v>1533.914656136668</v>
       </c>
       <c r="AB7" t="n">
-        <v>1943.417780625446</v>
+        <v>2098.7697040648</v>
       </c>
       <c r="AC7" t="n">
-        <v>1757.940715246539</v>
+        <v>1898.466069150635</v>
       </c>
       <c r="AD7" t="n">
-        <v>1420373.569774917</v>
+        <v>1533914.656136668</v>
       </c>
       <c r="AE7" t="n">
-        <v>1943417.780625446</v>
+        <v>2098769.7040648</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.518822745513671e-07</v>
+        <v>1.618136779427157e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.45447530864197</v>
       </c>
       <c r="AH7" t="n">
-        <v>1757940.715246539</v>
+        <v>1898466.069150635</v>
       </c>
     </row>
     <row r="8">
@@ -17902,28 +17902,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1383.26367935461</v>
+        <v>1496.804765716361</v>
       </c>
       <c r="AB8" t="n">
-        <v>1892.642391379562</v>
+        <v>2047.994314818916</v>
       </c>
       <c r="AC8" t="n">
-        <v>1712.011257886576</v>
+        <v>1852.536611790672</v>
       </c>
       <c r="AD8" t="n">
-        <v>1383263.67935461</v>
+        <v>1496804.765716361</v>
       </c>
       <c r="AE8" t="n">
-        <v>1892642.391379562</v>
+        <v>2047994.314818916</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.663873489758749e-07</v>
+        <v>1.642794444605014e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.13425925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>1712011.257886576</v>
+        <v>1852536.611790672</v>
       </c>
     </row>
     <row r="9">
@@ -18008,28 +18008,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1342.300912079186</v>
+        <v>1455.927249786957</v>
       </c>
       <c r="AB9" t="n">
-        <v>1836.595326043577</v>
+        <v>1992.063894135581</v>
       </c>
       <c r="AC9" t="n">
-        <v>1661.313245803707</v>
+        <v>1801.944111958515</v>
       </c>
       <c r="AD9" t="n">
-        <v>1342300.912079186</v>
+        <v>1455927.249786957</v>
       </c>
       <c r="AE9" t="n">
-        <v>1836595.326043577</v>
+        <v>1992063.894135581</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.772396856803426e-07</v>
+        <v>1.661242697749031e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.89891975308642</v>
       </c>
       <c r="AH9" t="n">
-        <v>1661313.245803707</v>
+        <v>1801944.111958515</v>
       </c>
     </row>
     <row r="10">
@@ -18114,28 +18114,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1317.525050961781</v>
+        <v>1431.151388669553</v>
       </c>
       <c r="AB10" t="n">
-        <v>1802.695899828894</v>
+        <v>1958.164467920898</v>
       </c>
       <c r="AC10" t="n">
-        <v>1630.649133248809</v>
+        <v>1771.279999403618</v>
       </c>
       <c r="AD10" t="n">
-        <v>1317525.050961781</v>
+        <v>1431151.388669553</v>
       </c>
       <c r="AE10" t="n">
-        <v>1802695.899828894</v>
+        <v>1958164.467920898</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.851274816265163e-07</v>
+        <v>1.674651428082975e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.73302469135803</v>
       </c>
       <c r="AH10" t="n">
-        <v>1630649.133248809</v>
+        <v>1771279.999403618</v>
       </c>
     </row>
     <row r="11">
@@ -18220,28 +18220,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1295.365045598931</v>
+        <v>1408.991383306702</v>
       </c>
       <c r="AB11" t="n">
-        <v>1772.375602861003</v>
+        <v>1927.844170953007</v>
       </c>
       <c r="AC11" t="n">
-        <v>1603.22256286873</v>
+        <v>1743.853429023539</v>
       </c>
       <c r="AD11" t="n">
-        <v>1295365.045598931</v>
+        <v>1408991.383306702</v>
       </c>
       <c r="AE11" t="n">
-        <v>1772375.602861003</v>
+        <v>1927844.170953007</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.916388836491968e-07</v>
+        <v>1.685720379969385e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.59413580246914</v>
       </c>
       <c r="AH11" t="n">
-        <v>1603222.56286873</v>
+        <v>1743853.429023539</v>
       </c>
     </row>
     <row r="12">
@@ -18326,28 +18326,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1274.546191934648</v>
+        <v>1388.001937441827</v>
       </c>
       <c r="AB12" t="n">
-        <v>1743.89032881453</v>
+        <v>1899.125485131686</v>
       </c>
       <c r="AC12" t="n">
-        <v>1577.455883397919</v>
+        <v>1717.875614270077</v>
       </c>
       <c r="AD12" t="n">
-        <v>1274546.191934648</v>
+        <v>1388001.937441827</v>
       </c>
       <c r="AE12" t="n">
-        <v>1743890.32881453</v>
+        <v>1899125.485131687</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.976738416214372e-07</v>
+        <v>1.695979408547033e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.47067901234568</v>
       </c>
       <c r="AH12" t="n">
-        <v>1577455.883397919</v>
+        <v>1717875.614270077</v>
       </c>
     </row>
     <row r="13">
@@ -18432,28 +18432,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1254.098038345522</v>
+        <v>1357.387040237995</v>
       </c>
       <c r="AB13" t="n">
-        <v>1715.912262965018</v>
+        <v>1857.236832143462</v>
       </c>
       <c r="AC13" t="n">
-        <v>1552.148004885623</v>
+        <v>1679.984755531954</v>
       </c>
       <c r="AD13" t="n">
-        <v>1254098.038345522</v>
+        <v>1357387.040237995</v>
       </c>
       <c r="AE13" t="n">
-        <v>1715912.262965018</v>
+        <v>1857236.832143462</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.002597096809318e-06</v>
+        <v>1.704348616070904e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.37037037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>1552148.004885623</v>
+        <v>1679984.755531954</v>
       </c>
     </row>
     <row r="14">
@@ -18538,28 +18538,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1235.564490147331</v>
+        <v>1338.853492039804</v>
       </c>
       <c r="AB14" t="n">
-        <v>1690.553844677814</v>
+        <v>1831.878413856257</v>
       </c>
       <c r="AC14" t="n">
-        <v>1529.209758448986</v>
+        <v>1657.046509095317</v>
       </c>
       <c r="AD14" t="n">
-        <v>1235564.490147331</v>
+        <v>1338853.492039804</v>
       </c>
       <c r="AE14" t="n">
-        <v>1690553.844677814</v>
+        <v>1831878.413856257</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.006408649212838e-06</v>
+        <v>1.710828002540998e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.29320987654321</v>
       </c>
       <c r="AH14" t="n">
-        <v>1529209.758448986</v>
+        <v>1657046.509095317</v>
       </c>
     </row>
     <row r="15">
@@ -18644,28 +18644,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1216.600449563595</v>
+        <v>1319.889451456068</v>
       </c>
       <c r="AB15" t="n">
-        <v>1664.606407716722</v>
+        <v>1805.930976895165</v>
       </c>
       <c r="AC15" t="n">
-        <v>1505.738708454003</v>
+        <v>1633.575459100335</v>
       </c>
       <c r="AD15" t="n">
-        <v>1216600.449563595</v>
+        <v>1319889.451456068</v>
       </c>
       <c r="AE15" t="n">
-        <v>1664606.407716722</v>
+        <v>1805930.976895165</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.010220201616358e-06</v>
+        <v>1.717307389011092e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.21604938271605</v>
       </c>
       <c r="AH15" t="n">
-        <v>1505738.708454004</v>
+        <v>1633575.459100335</v>
       </c>
     </row>
     <row r="16">
@@ -18750,28 +18750,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1201.592994910891</v>
+        <v>1304.881996803364</v>
       </c>
       <c r="AB16" t="n">
-        <v>1644.07254617872</v>
+        <v>1785.397115357163</v>
       </c>
       <c r="AC16" t="n">
-        <v>1487.164569841734</v>
+        <v>1615.001320488064</v>
       </c>
       <c r="AD16" t="n">
-        <v>1201592.994910891</v>
+        <v>1304881.996803364</v>
       </c>
       <c r="AE16" t="n">
-        <v>1644072.54617872</v>
+        <v>1785397.115357163</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.012549483640732e-06</v>
+        <v>1.721267014076149e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.16975308641976</v>
       </c>
       <c r="AH16" t="n">
-        <v>1487164.569841734</v>
+        <v>1615001.320488065</v>
       </c>
     </row>
     <row r="17">
@@ -18856,28 +18856,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1183.690982449157</v>
+        <v>1286.97998434163</v>
       </c>
       <c r="AB17" t="n">
-        <v>1619.578222947526</v>
+        <v>1760.902792125969</v>
       </c>
       <c r="AC17" t="n">
-        <v>1465.007950441726</v>
+        <v>1592.844701088056</v>
       </c>
       <c r="AD17" t="n">
-        <v>1183690.982449157</v>
+        <v>1286979.98434163</v>
       </c>
       <c r="AE17" t="n">
-        <v>1619578.222947526</v>
+        <v>1760902.792125969</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.014878765665105e-06</v>
+        <v>1.725226639141206e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.12345679012346</v>
       </c>
       <c r="AH17" t="n">
-        <v>1465007.950441726</v>
+        <v>1592844.701088056</v>
       </c>
     </row>
     <row r="18">
@@ -18962,28 +18962,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1178.937687399698</v>
+        <v>1282.22668929217</v>
       </c>
       <c r="AB18" t="n">
-        <v>1613.074554960278</v>
+        <v>1754.399124138722</v>
       </c>
       <c r="AC18" t="n">
-        <v>1459.124983399226</v>
+        <v>1586.961734045557</v>
       </c>
       <c r="AD18" t="n">
-        <v>1178937.687399698</v>
+        <v>1282226.689292171</v>
       </c>
       <c r="AE18" t="n">
-        <v>1613074.554960278</v>
+        <v>1754399.124138722</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.016202221360772e-06</v>
+        <v>1.727476426109989e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.09645061728395</v>
       </c>
       <c r="AH18" t="n">
-        <v>1459124.983399226</v>
+        <v>1586961.734045557</v>
       </c>
     </row>
     <row r="19">
@@ -19068,28 +19068,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1181.265925720658</v>
+        <v>1284.554927613131</v>
       </c>
       <c r="AB19" t="n">
-        <v>1616.260153345642</v>
+        <v>1757.584722524085</v>
       </c>
       <c r="AC19" t="n">
-        <v>1462.006552745705</v>
+        <v>1589.843303392037</v>
       </c>
       <c r="AD19" t="n">
-        <v>1181265.925720658</v>
+        <v>1284554.927613131</v>
       </c>
       <c r="AE19" t="n">
-        <v>1616260.153345642</v>
+        <v>1757584.722524085</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.015990468449465e-06</v>
+        <v>1.727116460194984e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20.10030864197531</v>
       </c>
       <c r="AH19" t="n">
-        <v>1462006.552745705</v>
+        <v>1589843.303392037</v>
       </c>
     </row>
     <row r="20">
@@ -19174,28 +19174,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1184.765886708464</v>
+        <v>1288.054888600937</v>
       </c>
       <c r="AB20" t="n">
-        <v>1621.04895437654</v>
+        <v>1762.373523554983</v>
       </c>
       <c r="AC20" t="n">
-        <v>1466.338317327339</v>
+        <v>1594.17506797367</v>
       </c>
       <c r="AD20" t="n">
-        <v>1184765.886708464</v>
+        <v>1288054.888600937</v>
       </c>
       <c r="AE20" t="n">
-        <v>1621048.95437654</v>
+        <v>1762373.523554983</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.015725777310332e-06</v>
+        <v>1.726666502801227e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>20.10802469135803</v>
       </c>
       <c r="AH20" t="n">
-        <v>1466338.317327339</v>
+        <v>1594175.06797367</v>
       </c>
     </row>
   </sheetData>
@@ -19471,28 +19471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1762.885109664612</v>
+        <v>1897.313907374747</v>
       </c>
       <c r="AB2" t="n">
-        <v>2412.057180045217</v>
+        <v>2595.98859165222</v>
       </c>
       <c r="AC2" t="n">
-        <v>2181.853828125215</v>
+        <v>2348.231083957804</v>
       </c>
       <c r="AD2" t="n">
-        <v>1762885.109664612</v>
+        <v>1897313.907374747</v>
       </c>
       <c r="AE2" t="n">
-        <v>2412057.180045217</v>
+        <v>2595988.59165222</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.828954544699351e-07</v>
+        <v>1.411745768744597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.22145061728395</v>
       </c>
       <c r="AH2" t="n">
-        <v>2181853.828125216</v>
+        <v>2348231.083957803</v>
       </c>
     </row>
     <row r="3">
@@ -19577,28 +19577,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1277.181908793739</v>
+        <v>1382.871608274984</v>
       </c>
       <c r="AB3" t="n">
-        <v>1747.496632900759</v>
+        <v>1892.105942431462</v>
       </c>
       <c r="AC3" t="n">
-        <v>1580.718006883639</v>
+        <v>1711.526006873172</v>
       </c>
       <c r="AD3" t="n">
-        <v>1277181.908793739</v>
+        <v>1382871.608274984</v>
       </c>
       <c r="AE3" t="n">
-        <v>1747496.632900759</v>
+        <v>1892105.942431462</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.565413226449784e-07</v>
+        <v>1.724870360612455e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.09799382716049</v>
       </c>
       <c r="AH3" t="n">
-        <v>1580718.006883638</v>
+        <v>1711526.006873172</v>
       </c>
     </row>
     <row r="4">
@@ -19683,28 +19683,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1135.915157794876</v>
+        <v>1241.60476776757</v>
       </c>
       <c r="AB4" t="n">
-        <v>1554.209231934911</v>
+        <v>1698.818418996065</v>
       </c>
       <c r="AC4" t="n">
-        <v>1405.877684185399</v>
+        <v>1536.685573393706</v>
       </c>
       <c r="AD4" t="n">
-        <v>1135915.157794876</v>
+        <v>1241604.76776757</v>
       </c>
       <c r="AE4" t="n">
-        <v>1554209.231934911</v>
+        <v>1698818.418996065</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.019768578075469e-06</v>
+        <v>1.838884064247717e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1405877.684185399</v>
+        <v>1536685.573393706</v>
       </c>
     </row>
     <row r="5">
@@ -19789,28 +19789,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1071.038434461387</v>
+        <v>1167.119987581478</v>
       </c>
       <c r="AB5" t="n">
-        <v>1465.442036910998</v>
+        <v>1596.90505670887</v>
       </c>
       <c r="AC5" t="n">
-        <v>1325.582305669028</v>
+        <v>1444.498679366898</v>
       </c>
       <c r="AD5" t="n">
-        <v>1071038.434461387</v>
+        <v>1167119.987581478</v>
       </c>
       <c r="AE5" t="n">
-        <v>1465442.036910998</v>
+        <v>1596905.05670887</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.051897645373029e-06</v>
+        <v>1.896820375605853e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.00308641975309</v>
       </c>
       <c r="AH5" t="n">
-        <v>1325582.305669028</v>
+        <v>1444498.679366898</v>
       </c>
     </row>
     <row r="6">
@@ -19895,28 +19895,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1013.706083962911</v>
+        <v>1119.310353081034</v>
       </c>
       <c r="AB6" t="n">
-        <v>1386.997385634191</v>
+        <v>1531.489805573149</v>
       </c>
       <c r="AC6" t="n">
-        <v>1254.62430181232</v>
+        <v>1385.326567988689</v>
       </c>
       <c r="AD6" t="n">
-        <v>1013706.083962911</v>
+        <v>1119310.353081034</v>
       </c>
       <c r="AE6" t="n">
-        <v>1386997.385634191</v>
+        <v>1531489.805573149</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.071885246953863e-06</v>
+        <v>1.932862751120985e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.61342592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>1254624.30181232</v>
+        <v>1385326.567988689</v>
       </c>
     </row>
     <row r="7">
@@ -20001,28 +20001,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>973.7762859237815</v>
+        <v>1069.772498189301</v>
       </c>
       <c r="AB7" t="n">
-        <v>1332.36367437869</v>
+        <v>1463.709927054364</v>
       </c>
       <c r="AC7" t="n">
-        <v>1205.204755280149</v>
+        <v>1324.01550594608</v>
       </c>
       <c r="AD7" t="n">
-        <v>973776.2859237816</v>
+        <v>1069772.498189301</v>
       </c>
       <c r="AE7" t="n">
-        <v>1332363.67437869</v>
+        <v>1463709.927054364</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.085916657805738e-06</v>
+        <v>1.958164705279173e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.34722222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1205204.755280149</v>
+        <v>1324015.50594608</v>
       </c>
     </row>
     <row r="8">
@@ -20107,28 +20107,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>945.5554840313043</v>
+        <v>1041.551696296824</v>
       </c>
       <c r="AB8" t="n">
-        <v>1293.750728215492</v>
+        <v>1425.096980891166</v>
       </c>
       <c r="AC8" t="n">
-        <v>1170.276974505156</v>
+        <v>1289.087725171087</v>
       </c>
       <c r="AD8" t="n">
-        <v>945555.4840313044</v>
+        <v>1041551.696296824</v>
       </c>
       <c r="AE8" t="n">
-        <v>1293750.728215492</v>
+        <v>1425096.980891166</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.09422096218746e-06</v>
+        <v>1.97313933120953e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.1929012345679</v>
       </c>
       <c r="AH8" t="n">
-        <v>1170276.974505157</v>
+        <v>1289087.725171087</v>
       </c>
     </row>
     <row r="9">
@@ -20213,28 +20213,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>939.4811576049316</v>
+        <v>1035.477369870451</v>
       </c>
       <c r="AB9" t="n">
-        <v>1285.43956681856</v>
+        <v>1416.785819494234</v>
       </c>
       <c r="AC9" t="n">
-        <v>1162.759018687159</v>
+        <v>1281.56976935309</v>
       </c>
       <c r="AD9" t="n">
-        <v>939481.1576049316</v>
+        <v>1035477.369870451</v>
       </c>
       <c r="AE9" t="n">
-        <v>1285439.56681856</v>
+        <v>1416785.819494234</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.095767280934401e-06</v>
+        <v>1.975927709831044e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.16203703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>1162759.018687159</v>
+        <v>1281569.76935309</v>
       </c>
     </row>
     <row r="10">
@@ -20319,28 +20319,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>944.8698407658177</v>
+        <v>1040.866053031337</v>
       </c>
       <c r="AB10" t="n">
-        <v>1292.812600851207</v>
+        <v>1424.158853526881</v>
       </c>
       <c r="AC10" t="n">
-        <v>1169.428380699849</v>
+        <v>1288.239131365779</v>
       </c>
       <c r="AD10" t="n">
-        <v>944869.8407658177</v>
+        <v>1040866.053031337</v>
       </c>
       <c r="AE10" t="n">
-        <v>1292812.600851208</v>
+        <v>1424158.853526881</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.095423654546192e-06</v>
+        <v>1.975308070137374e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.16975308641976</v>
       </c>
       <c r="AH10" t="n">
-        <v>1169428.380699849</v>
+        <v>1288239.131365779</v>
       </c>
     </row>
   </sheetData>
@@ -20616,28 +20616,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1332.689953141542</v>
+        <v>1452.962319634733</v>
       </c>
       <c r="AB2" t="n">
-        <v>1823.445188019509</v>
+        <v>1988.007145897822</v>
       </c>
       <c r="AC2" t="n">
-        <v>1649.418138496322</v>
+        <v>1798.274534078886</v>
       </c>
       <c r="AD2" t="n">
-        <v>1332689.953141542</v>
+        <v>1452962.319634733</v>
       </c>
       <c r="AE2" t="n">
-        <v>1823445.188019509</v>
+        <v>1988007.145897822</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.96890325625907e-07</v>
+        <v>1.673310663138672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.66358024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>1649418.138496322</v>
+        <v>1798274.534078886</v>
       </c>
     </row>
     <row r="3">
@@ -20722,28 +20722,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1029.268922785312</v>
+        <v>1130.95259693353</v>
       </c>
       <c r="AB3" t="n">
-        <v>1408.291148294992</v>
+        <v>1547.419237231683</v>
       </c>
       <c r="AC3" t="n">
-        <v>1273.885817650758</v>
+        <v>1399.735717046831</v>
       </c>
       <c r="AD3" t="n">
-        <v>1029268.922785312</v>
+        <v>1130952.59693353</v>
       </c>
       <c r="AE3" t="n">
-        <v>1408291.148294992</v>
+        <v>1547419.237231683</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.046153302526001e-06</v>
+        <v>1.951787667207647e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.00231481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>1273885.817650758</v>
+        <v>1399735.717046831</v>
       </c>
     </row>
     <row r="4">
@@ -20828,28 +20828,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>918.0987194287212</v>
+        <v>1019.782304068388</v>
       </c>
       <c r="AB4" t="n">
-        <v>1256.183171579274</v>
+        <v>1395.311138046417</v>
       </c>
       <c r="AC4" t="n">
-        <v>1136.294812747901</v>
+        <v>1262.144601362748</v>
       </c>
       <c r="AD4" t="n">
-        <v>918098.7194287212</v>
+        <v>1019782.304068388</v>
       </c>
       <c r="AE4" t="n">
-        <v>1256183.171579274</v>
+        <v>1395311.138046417</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.099308103652294e-06</v>
+        <v>2.050957535563145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1136294.812747902</v>
+        <v>1262144.601362748</v>
       </c>
     </row>
     <row r="5">
@@ -20934,28 +20934,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>859.7002109070589</v>
+        <v>952.1321645558008</v>
       </c>
       <c r="AB5" t="n">
-        <v>1176.27975585957</v>
+        <v>1302.749232651776</v>
       </c>
       <c r="AC5" t="n">
-        <v>1064.017266879338</v>
+        <v>1178.416674307521</v>
       </c>
       <c r="AD5" t="n">
-        <v>859700.2109070589</v>
+        <v>952132.1645558008</v>
       </c>
       <c r="AE5" t="n">
-        <v>1176279.75585957</v>
+        <v>1302749.232651776</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.126273277736564e-06</v>
+        <v>2.10126593118232e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.43595679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>1064017.266879338</v>
+        <v>1178416.674307521</v>
       </c>
     </row>
     <row r="6">
@@ -21040,28 +21040,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>841.4801024278754</v>
+        <v>933.9120560766174</v>
       </c>
       <c r="AB6" t="n">
-        <v>1151.350199623895</v>
+        <v>1277.819676416101</v>
       </c>
       <c r="AC6" t="n">
-        <v>1041.466952501944</v>
+        <v>1155.866359930128</v>
       </c>
       <c r="AD6" t="n">
-        <v>841480.1024278754</v>
+        <v>933912.0560766174</v>
       </c>
       <c r="AE6" t="n">
-        <v>1151350.199623895</v>
+        <v>1277819.676416101</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.133074228722419e-06</v>
+        <v>2.113954331847333e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1041466.952501944</v>
+        <v>1155866.359930128</v>
       </c>
     </row>
     <row r="7">
@@ -21146,28 +21146,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>844.4590327884016</v>
+        <v>936.8909864371435</v>
       </c>
       <c r="AB7" t="n">
-        <v>1155.426103564299</v>
+        <v>1281.895580356505</v>
       </c>
       <c r="AC7" t="n">
-        <v>1045.153857890843</v>
+        <v>1159.553265319027</v>
       </c>
       <c r="AD7" t="n">
-        <v>844459.0327884016</v>
+        <v>936890.9864371435</v>
       </c>
       <c r="AE7" t="n">
-        <v>1155426.103564299</v>
+        <v>1281895.580356505</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.133611145905513e-06</v>
+        <v>2.114956047689307e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.30478395061728</v>
       </c>
       <c r="AH7" t="n">
-        <v>1045153.857890843</v>
+        <v>1159553.265319027</v>
       </c>
     </row>
   </sheetData>
@@ -39336,28 +39336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1070.956017052175</v>
+        <v>1178.472637464066</v>
       </c>
       <c r="AB2" t="n">
-        <v>1465.329269775714</v>
+        <v>1612.438253121792</v>
       </c>
       <c r="AC2" t="n">
-        <v>1325.480300870867</v>
+        <v>1458.549409315149</v>
       </c>
       <c r="AD2" t="n">
-        <v>1070956.017052175</v>
+        <v>1178472.637464066</v>
       </c>
       <c r="AE2" t="n">
-        <v>1465329.269775714</v>
+        <v>1612438.253121792</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.89936639133988e-07</v>
+        <v>1.903684867476688e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.05092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>1325480.300870867</v>
+        <v>1458549.409315149</v>
       </c>
     </row>
     <row r="3">
@@ -39442,28 +39442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>848.2384008808179</v>
+        <v>946.7028577916453</v>
       </c>
       <c r="AB3" t="n">
-        <v>1160.597201722296</v>
+        <v>1295.320615612949</v>
       </c>
       <c r="AC3" t="n">
-        <v>1049.831433698323</v>
+        <v>1171.69703405275</v>
       </c>
       <c r="AD3" t="n">
-        <v>848238.4008808179</v>
+        <v>946702.8577916453</v>
       </c>
       <c r="AE3" t="n">
-        <v>1160597.201722296</v>
+        <v>1295320.615612949</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.118854888566748e-06</v>
+        <v>2.15159944188968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.28086419753086</v>
       </c>
       <c r="AH3" t="n">
-        <v>1049831.433698323</v>
+        <v>1171697.034052751</v>
       </c>
     </row>
     <row r="4">
@@ -39548,28 +39548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>769.9883878669325</v>
+        <v>868.5380961237806</v>
       </c>
       <c r="AB4" t="n">
-        <v>1053.532081769764</v>
+        <v>1188.372140313066</v>
       </c>
       <c r="AC4" t="n">
-        <v>952.9844585272206</v>
+        <v>1074.955571132361</v>
       </c>
       <c r="AD4" t="n">
-        <v>769988.3878669325</v>
+        <v>868538.0961237806</v>
       </c>
       <c r="AE4" t="n">
-        <v>1053532.081769764</v>
+        <v>1188372.140313066</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.158597996577613e-06</v>
+        <v>2.228026912412402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.54783950617284</v>
       </c>
       <c r="AH4" t="n">
-        <v>952984.4585272205</v>
+        <v>1074955.571132361</v>
       </c>
     </row>
     <row r="5">
@@ -39654,28 +39654,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>769.7657194569985</v>
+        <v>868.3154277138464</v>
       </c>
       <c r="AB5" t="n">
-        <v>1053.227417027855</v>
+        <v>1188.067475571157</v>
       </c>
       <c r="AC5" t="n">
-        <v>952.7088705606798</v>
+        <v>1074.67998316582</v>
       </c>
       <c r="AD5" t="n">
-        <v>769765.7194569984</v>
+        <v>868315.4277138463</v>
       </c>
       <c r="AE5" t="n">
-        <v>1053227.417027855</v>
+        <v>1188067.475571157</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.160943086801857e-06</v>
+        <v>2.232536607878029e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.50925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>952708.8705606798</v>
+        <v>1074679.98316582</v>
       </c>
     </row>
   </sheetData>
@@ -39951,28 +39951,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>637.7387015874187</v>
+        <v>730.1614358385477</v>
       </c>
       <c r="AB2" t="n">
-        <v>872.5822265577492</v>
+        <v>999.0390889634103</v>
       </c>
       <c r="AC2" t="n">
-        <v>789.3042035319237</v>
+        <v>903.6922004729095</v>
       </c>
       <c r="AD2" t="n">
-        <v>637738.7015874188</v>
+        <v>730161.4358385478</v>
       </c>
       <c r="AE2" t="n">
-        <v>872582.2265577492</v>
+        <v>999039.0889634104</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.182260072210065e-06</v>
+        <v>2.438528822614747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.61651234567901</v>
       </c>
       <c r="AH2" t="n">
-        <v>789304.2035319237</v>
+        <v>903692.2004729095</v>
       </c>
     </row>
     <row r="3">
@@ -40057,28 +40057,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>633.7467589252878</v>
+        <v>725.9989009758247</v>
       </c>
       <c r="AB3" t="n">
-        <v>867.1202744953409</v>
+        <v>993.3437251261549</v>
       </c>
       <c r="AC3" t="n">
-        <v>784.3635325084538</v>
+        <v>898.5403941667885</v>
       </c>
       <c r="AD3" t="n">
-        <v>633746.7589252879</v>
+        <v>725998.9009758247</v>
       </c>
       <c r="AE3" t="n">
-        <v>867120.2744953409</v>
+        <v>993343.725126155</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.191135799123402e-06</v>
+        <v>2.456835890922797e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.45447530864197</v>
       </c>
       <c r="AH3" t="n">
-        <v>784363.5325084538</v>
+        <v>898540.3941667884</v>
       </c>
     </row>
   </sheetData>
@@ -40354,28 +40354,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2248.197846398296</v>
+        <v>2406.590869720702</v>
       </c>
       <c r="AB2" t="n">
-        <v>3076.083476931288</v>
+        <v>3292.803799248032</v>
       </c>
       <c r="AC2" t="n">
-        <v>2782.506387203126</v>
+        <v>2978.543226126833</v>
       </c>
       <c r="AD2" t="n">
-        <v>2248197.846398296</v>
+        <v>2406590.869720703</v>
       </c>
       <c r="AE2" t="n">
-        <v>3076083.476931288</v>
+        <v>3292803.799248032</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.880377517011437e-07</v>
+        <v>1.208855188179988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.06095679012346</v>
       </c>
       <c r="AH2" t="n">
-        <v>2782506.387203126</v>
+        <v>2978543.226126833</v>
       </c>
     </row>
     <row r="3">
@@ -40460,28 +40460,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1524.916459180942</v>
+        <v>1643.75391947717</v>
       </c>
       <c r="AB3" t="n">
-        <v>2086.457974017543</v>
+        <v>2249.056629933576</v>
       </c>
       <c r="AC3" t="n">
-        <v>1887.329353339466</v>
+        <v>2034.409821743521</v>
       </c>
       <c r="AD3" t="n">
-        <v>1524916.459180942</v>
+        <v>1643753.91947717</v>
       </c>
       <c r="AE3" t="n">
-        <v>2086457.974017543</v>
+        <v>2249056.629933576</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.810273279773521e-07</v>
+        <v>1.547930260687764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.2554012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>1887329.353339466</v>
+        <v>2034409.82174352</v>
       </c>
     </row>
     <row r="4">
@@ -40566,28 +40566,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1340.023765274693</v>
+        <v>1448.950999600734</v>
       </c>
       <c r="AB4" t="n">
-        <v>1833.479633325043</v>
+        <v>1982.518680860353</v>
       </c>
       <c r="AC4" t="n">
-        <v>1658.494910425328</v>
+        <v>1793.309880441485</v>
       </c>
       <c r="AD4" t="n">
-        <v>1340023.765274693</v>
+        <v>1448950.999600734</v>
       </c>
       <c r="AE4" t="n">
-        <v>1833479.633325043</v>
+        <v>1982518.680860353</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.53149150110424e-07</v>
+        <v>1.674645457130107e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.41898148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>1658494.910425328</v>
+        <v>1793309.880441485</v>
       </c>
     </row>
     <row r="5">
@@ -40672,28 +40672,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1249.280049458346</v>
+        <v>1358.292535130408</v>
       </c>
       <c r="AB5" t="n">
-        <v>1709.320078014916</v>
+        <v>1858.475770202876</v>
       </c>
       <c r="AC5" t="n">
-        <v>1546.184968814969</v>
+        <v>1681.105451081838</v>
       </c>
       <c r="AD5" t="n">
-        <v>1249280.049458346</v>
+        <v>1358292.535130408</v>
       </c>
       <c r="AE5" t="n">
-        <v>1709320.078014916</v>
+        <v>1858475.770202876</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.90871854313667e-07</v>
+        <v>1.740922760338429e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.56635802469136</v>
       </c>
       <c r="AH5" t="n">
-        <v>1546184.968814969</v>
+        <v>1681105.451081838</v>
       </c>
     </row>
     <row r="6">
@@ -40778,28 +40778,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1196.92015234149</v>
+        <v>1296.022501551915</v>
       </c>
       <c r="AB6" t="n">
-        <v>1637.678956824002</v>
+        <v>1773.275163100786</v>
       </c>
       <c r="AC6" t="n">
-        <v>1481.381175681571</v>
+        <v>1604.036270341769</v>
       </c>
       <c r="AD6" t="n">
-        <v>1196920.15234149</v>
+        <v>1296022.501551915</v>
       </c>
       <c r="AE6" t="n">
-        <v>1637678.956824002</v>
+        <v>1773275.163100786</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.013970778913891e-06</v>
+        <v>1.781506659659825e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.07638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1481381.175681571</v>
+        <v>1604036.270341769</v>
       </c>
     </row>
     <row r="7">
@@ -40884,28 +40884,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1148.61949328606</v>
+        <v>1257.546638103549</v>
       </c>
       <c r="AB7" t="n">
-        <v>1571.591864229674</v>
+        <v>1720.630789295435</v>
       </c>
       <c r="AC7" t="n">
-        <v>1421.601342450628</v>
+        <v>1556.416201685558</v>
       </c>
       <c r="AD7" t="n">
-        <v>1148619.49328606</v>
+        <v>1257546.638103549</v>
       </c>
       <c r="AE7" t="n">
-        <v>1571591.864229674</v>
+        <v>1720630.789295435</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.029037703353365e-06</v>
+        <v>1.807978651543325e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.76774691358025</v>
       </c>
       <c r="AH7" t="n">
-        <v>1421601.342450628</v>
+        <v>1556416.201685559</v>
       </c>
     </row>
     <row r="8">
@@ -40990,28 +40990,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1114.130336310322</v>
+        <v>1223.057481127812</v>
       </c>
       <c r="AB8" t="n">
-        <v>1524.40227810125</v>
+        <v>1673.441203167012</v>
       </c>
       <c r="AC8" t="n">
-        <v>1378.915464191301</v>
+        <v>1513.730323426231</v>
       </c>
       <c r="AD8" t="n">
-        <v>1114130.336310322</v>
+        <v>1223057.481127812</v>
       </c>
       <c r="AE8" t="n">
-        <v>1524402.27810125</v>
+        <v>1673441.203167011</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.041611938087779e-06</v>
+        <v>1.830071085946099e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.51697530864197</v>
       </c>
       <c r="AH8" t="n">
-        <v>1378915.464191301</v>
+        <v>1513730.323426231</v>
       </c>
     </row>
     <row r="9">
@@ -41096,28 +41096,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1084.902218592686</v>
+        <v>1183.91922694854</v>
       </c>
       <c r="AB9" t="n">
-        <v>1484.411077986432</v>
+        <v>1619.890517141019</v>
       </c>
       <c r="AC9" t="n">
-        <v>1342.740968087439</v>
+        <v>1465.290439715699</v>
       </c>
       <c r="AD9" t="n">
-        <v>1084902.218592686</v>
+        <v>1183919.226948539</v>
       </c>
       <c r="AE9" t="n">
-        <v>1484411.077986432</v>
+        <v>1619890.517141019</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.049477758934858e-06</v>
+        <v>1.84389102288528e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.36265432098766</v>
       </c>
       <c r="AH9" t="n">
-        <v>1342740.968087439</v>
+        <v>1465290.439715699</v>
       </c>
     </row>
     <row r="10">
@@ -41202,28 +41202,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1051.982334586845</v>
+        <v>1150.999342942699</v>
       </c>
       <c r="AB10" t="n">
-        <v>1439.368640366858</v>
+        <v>1574.848079521444</v>
       </c>
       <c r="AC10" t="n">
-        <v>1301.997317496819</v>
+        <v>1424.546789125079</v>
       </c>
       <c r="AD10" t="n">
-        <v>1051982.334586845</v>
+        <v>1150999.342942699</v>
       </c>
       <c r="AE10" t="n">
-        <v>1439368.640366858</v>
+        <v>1574848.079521444</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.057343579781936e-06</v>
+        <v>1.85771095982446e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.21219135802469</v>
       </c>
       <c r="AH10" t="n">
-        <v>1301997.317496819</v>
+        <v>1424546.789125079</v>
       </c>
     </row>
     <row r="11">
@@ -41308,28 +41308,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1033.525185623081</v>
+        <v>1132.542193978935</v>
       </c>
       <c r="AB11" t="n">
-        <v>1414.114754882692</v>
+        <v>1549.594194037278</v>
       </c>
       <c r="AC11" t="n">
-        <v>1279.153627399211</v>
+        <v>1401.703099027471</v>
       </c>
       <c r="AD11" t="n">
-        <v>1033525.185623081</v>
+        <v>1132542.193978935</v>
       </c>
       <c r="AE11" t="n">
-        <v>1414114.754882692</v>
+        <v>1549594.194037278</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.062162779878386e-06</v>
+        <v>1.866178104287197e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.1195987654321</v>
       </c>
       <c r="AH11" t="n">
-        <v>1279153.627399211</v>
+        <v>1401703.099027471</v>
       </c>
     </row>
     <row r="12">
@@ -41414,28 +41414,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1031.95575837717</v>
+        <v>1130.972766733023</v>
       </c>
       <c r="AB12" t="n">
-        <v>1411.967395286592</v>
+        <v>1547.446834441178</v>
       </c>
       <c r="AC12" t="n">
-        <v>1277.211208789125</v>
+        <v>1399.760680417384</v>
       </c>
       <c r="AD12" t="n">
-        <v>1031955.75837717</v>
+        <v>1130972.766733023</v>
       </c>
       <c r="AE12" t="n">
-        <v>1411967.395286592</v>
+        <v>1547446.834441178</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.062550531610284e-06</v>
+        <v>1.866859368784199e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.11188271604938</v>
       </c>
       <c r="AH12" t="n">
-        <v>1277211.208789125</v>
+        <v>1399760.680417384</v>
       </c>
     </row>
     <row r="13">
@@ -41520,28 +41520,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1035.541281294165</v>
+        <v>1134.558289650018</v>
       </c>
       <c r="AB13" t="n">
-        <v>1416.873265923732</v>
+        <v>1552.352705078319</v>
       </c>
       <c r="AC13" t="n">
-        <v>1281.648870018089</v>
+        <v>1404.198341646349</v>
       </c>
       <c r="AD13" t="n">
-        <v>1035541.281294165</v>
+        <v>1134558.289650018</v>
       </c>
       <c r="AE13" t="n">
-        <v>1416873.265923732</v>
+        <v>1552352.705078319</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.0622735660875e-06</v>
+        <v>1.866372751286341e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.1195987654321</v>
       </c>
       <c r="AH13" t="n">
-        <v>1281648.870018089</v>
+        <v>1404198.341646349</v>
       </c>
     </row>
   </sheetData>
@@ -41817,28 +41817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3034.587281895074</v>
+        <v>3219.059011597963</v>
       </c>
       <c r="AB2" t="n">
-        <v>4152.056195631423</v>
+        <v>4404.458554529269</v>
       </c>
       <c r="AC2" t="n">
-        <v>3755.789779767674</v>
+        <v>3984.103211781236</v>
       </c>
       <c r="AD2" t="n">
-        <v>3034587.281895074</v>
+        <v>3219059.011597963</v>
       </c>
       <c r="AE2" t="n">
-        <v>4152056.195631423</v>
+        <v>4404458.554529269</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.80545199556383e-07</v>
+        <v>9.926675938936675e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.47453703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>3755789.779767674</v>
+        <v>3984103.211781236</v>
       </c>
     </row>
     <row r="3">
@@ -41923,28 +41923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1868.898555231194</v>
+        <v>2012.338568335868</v>
       </c>
       <c r="AB3" t="n">
-        <v>2557.109453252548</v>
+        <v>2753.370407309124</v>
       </c>
       <c r="AC3" t="n">
-        <v>2313.062515959782</v>
+        <v>2490.592600015179</v>
       </c>
       <c r="AD3" t="n">
-        <v>1868898.555231194</v>
+        <v>2012338.568335868</v>
       </c>
       <c r="AE3" t="n">
-        <v>2557109.453252547</v>
+        <v>2753370.407309124</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.943797039167058e-07</v>
+        <v>1.358300766120408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.92206790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>2313062.515959782</v>
+        <v>2490592.600015178</v>
       </c>
     </row>
     <row r="4">
@@ -42029,28 +42029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1611.179614671778</v>
+        <v>1734.103903740172</v>
       </c>
       <c r="AB4" t="n">
-        <v>2204.487029021935</v>
+        <v>2372.677464362208</v>
       </c>
       <c r="AC4" t="n">
-        <v>1994.093880989059</v>
+        <v>2146.232457237214</v>
       </c>
       <c r="AD4" t="n">
-        <v>1611179.614671778</v>
+        <v>1734103.903740172</v>
       </c>
       <c r="AE4" t="n">
-        <v>2204487.029021935</v>
+        <v>2372677.464362207</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.765293050676134e-07</v>
+        <v>1.498767429140117e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.49537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1994093.880989059</v>
+        <v>2146232.457237214</v>
       </c>
     </row>
     <row r="5">
@@ -42135,28 +42135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1489.880320291314</v>
+        <v>1602.632043441865</v>
       </c>
       <c r="AB5" t="n">
-        <v>2038.519983103396</v>
+        <v>2192.791864972939</v>
       </c>
       <c r="AC5" t="n">
-        <v>1843.966496996773</v>
+        <v>1983.514886982633</v>
       </c>
       <c r="AD5" t="n">
-        <v>1489880.320291314</v>
+        <v>1602632.043441865</v>
       </c>
       <c r="AE5" t="n">
-        <v>2038519.983103396</v>
+        <v>2192791.864972939</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.209402655338614e-07</v>
+        <v>1.574705222273579e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.36111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1843966.496996773</v>
+        <v>1983514.886982633</v>
       </c>
     </row>
     <row r="6">
@@ -42241,28 +42241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1413.815893745592</v>
+        <v>1526.652868242163</v>
       </c>
       <c r="AB6" t="n">
-        <v>1934.445278977875</v>
+        <v>2088.833805500067</v>
       </c>
       <c r="AC6" t="n">
-        <v>1749.824536563227</v>
+        <v>1889.4784387998</v>
       </c>
       <c r="AD6" t="n">
-        <v>1413815.893745592</v>
+        <v>1526652.868242163</v>
       </c>
       <c r="AE6" t="n">
-        <v>1934445.278977875</v>
+        <v>2088833.805500067</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.482700873592446e-07</v>
+        <v>1.621436171894171e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.71682098765432</v>
       </c>
       <c r="AH6" t="n">
-        <v>1749824.536563227</v>
+        <v>1889478.438799799</v>
       </c>
     </row>
     <row r="7">
@@ -42347,28 +42347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1369.654758724145</v>
+        <v>1482.321141020125</v>
       </c>
       <c r="AB7" t="n">
-        <v>1874.022065789756</v>
+        <v>2028.177180537101</v>
       </c>
       <c r="AC7" t="n">
-        <v>1695.16803003727</v>
+        <v>1834.610796991191</v>
       </c>
       <c r="AD7" t="n">
-        <v>1369654.758724146</v>
+        <v>1482321.141020125</v>
       </c>
       <c r="AE7" t="n">
-        <v>1874022.065789756</v>
+        <v>2028177.180537101</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.660451472573942e-07</v>
+        <v>1.651829543424752e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.31944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1695168.030037269</v>
+        <v>1834610.796991191</v>
       </c>
     </row>
     <row r="8">
@@ -42453,28 +42453,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1333.655073535618</v>
+        <v>1436.234230768325</v>
       </c>
       <c r="AB8" t="n">
-        <v>1824.765708320791</v>
+        <v>1965.119036719605</v>
       </c>
       <c r="AC8" t="n">
-        <v>1650.612630193411</v>
+        <v>1777.570833916976</v>
       </c>
       <c r="AD8" t="n">
-        <v>1333655.073535618</v>
+        <v>1436234.230768325</v>
       </c>
       <c r="AE8" t="n">
-        <v>1824765.708320791</v>
+        <v>1965119.036719605</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.797100581700859e-07</v>
+        <v>1.675195018235047e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.01851851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>1650612.630193411</v>
+        <v>1777570.833916976</v>
       </c>
     </row>
     <row r="9">
@@ -42559,28 +42559,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1294.184288280234</v>
+        <v>1406.935921922233</v>
       </c>
       <c r="AB9" t="n">
-        <v>1770.760038606225</v>
+        <v>1925.03179800622</v>
       </c>
       <c r="AC9" t="n">
-        <v>1601.76118579897</v>
+        <v>1741.309465003604</v>
       </c>
       <c r="AD9" t="n">
-        <v>1294184.288280234</v>
+        <v>1406935.921922233</v>
       </c>
       <c r="AE9" t="n">
-        <v>1770760.038606225</v>
+        <v>1925031.79800622</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.903323912623735e-07</v>
+        <v>1.693358024044614e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.79475308641975</v>
       </c>
       <c r="AH9" t="n">
-        <v>1601761.18579897</v>
+        <v>1741309.465003604</v>
       </c>
     </row>
     <row r="10">
@@ -42665,28 +42665,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1269.34193918614</v>
+        <v>1382.09357282814</v>
       </c>
       <c r="AB10" t="n">
-        <v>1736.769640608594</v>
+        <v>1891.041400008589</v>
       </c>
       <c r="AC10" t="n">
-        <v>1571.014783680409</v>
+        <v>1710.563062885042</v>
       </c>
       <c r="AD10" t="n">
-        <v>1269341.93918614</v>
+        <v>1382093.57282814</v>
       </c>
       <c r="AE10" t="n">
-        <v>1736769.640608594</v>
+        <v>1891041.400008589</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.98125660767268e-07</v>
+        <v>1.70668364639736e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.63271604938272</v>
       </c>
       <c r="AH10" t="n">
-        <v>1571014.783680409</v>
+        <v>1710563.062885042</v>
       </c>
     </row>
     <row r="11">
@@ -42771,28 +42771,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1247.158060450329</v>
+        <v>1359.909694092328</v>
       </c>
       <c r="AB11" t="n">
-        <v>1706.416679038599</v>
+        <v>1860.688438438594</v>
       </c>
       <c r="AC11" t="n">
-        <v>1543.558666162005</v>
+        <v>1683.106945366639</v>
       </c>
       <c r="AD11" t="n">
-        <v>1247158.060450329</v>
+        <v>1359909.694092328</v>
       </c>
       <c r="AE11" t="n">
-        <v>1706416.679038599</v>
+        <v>1860688.438438594</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.004317573524581e-06</v>
+        <v>1.717271127170775e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.5054012345679</v>
       </c>
       <c r="AH11" t="n">
-        <v>1543558.666162005</v>
+        <v>1683106.945366639</v>
       </c>
     </row>
     <row r="12">
@@ -42877,28 +42877,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1222.693056691071</v>
+        <v>1325.186873069206</v>
       </c>
       <c r="AB12" t="n">
-        <v>1672.942581575392</v>
+        <v>1813.179142852008</v>
       </c>
       <c r="AC12" t="n">
-        <v>1513.279289579496</v>
+        <v>1640.131870271122</v>
       </c>
       <c r="AD12" t="n">
-        <v>1222693.056691071</v>
+        <v>1325186.873069206</v>
       </c>
       <c r="AE12" t="n">
-        <v>1672942.581575392</v>
+        <v>1813179.142852008</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.009868943582862e-06</v>
+        <v>1.726763351312458e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.39351851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>1513279.289579496</v>
+        <v>1640131.870271122</v>
       </c>
     </row>
     <row r="13">
@@ -42983,28 +42983,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1202.23881272597</v>
+        <v>1304.732629104104</v>
       </c>
       <c r="AB13" t="n">
-        <v>1644.956182604782</v>
+        <v>1785.192743881399</v>
       </c>
       <c r="AC13" t="n">
-        <v>1487.963873247483</v>
+        <v>1614.81645393911</v>
       </c>
       <c r="AD13" t="n">
-        <v>1202238.81272597</v>
+        <v>1304732.629104105</v>
       </c>
       <c r="AE13" t="n">
-        <v>1644956.182604782</v>
+        <v>1785192.743881399</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.014459499592595e-06</v>
+        <v>1.734612690506542e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.30092592592593</v>
       </c>
       <c r="AH13" t="n">
-        <v>1487963.873247484</v>
+        <v>1614816.45393911</v>
       </c>
     </row>
     <row r="14">
@@ -43089,28 +43089,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1181.961406571784</v>
+        <v>1284.455222949919</v>
       </c>
       <c r="AB14" t="n">
-        <v>1617.211740928602</v>
+        <v>1757.448302205218</v>
       </c>
       <c r="AC14" t="n">
-        <v>1462.86732214531</v>
+        <v>1589.719902836935</v>
       </c>
       <c r="AD14" t="n">
-        <v>1181961.406571784</v>
+        <v>1284455.222949919</v>
       </c>
       <c r="AE14" t="n">
-        <v>1617211.740928602</v>
+        <v>1757448.302205218</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.019210191277085e-06</v>
+        <v>1.742735843858559e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.20447530864197</v>
       </c>
       <c r="AH14" t="n">
-        <v>1462867.32214531</v>
+        <v>1589719.902836936</v>
       </c>
     </row>
     <row r="15">
@@ -43195,28 +43195,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1166.10222735544</v>
+        <v>1268.596043733575</v>
       </c>
       <c r="AB15" t="n">
-        <v>1595.512512267193</v>
+        <v>1735.74907354381</v>
       </c>
       <c r="AC15" t="n">
-        <v>1443.239037412287</v>
+        <v>1570.091618103913</v>
       </c>
       <c r="AD15" t="n">
-        <v>1166102.22735544</v>
+        <v>1268596.043733575</v>
       </c>
       <c r="AE15" t="n">
-        <v>1595512.512267193</v>
+        <v>1735749.07354381</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.021238576490688e-06</v>
+        <v>1.746204156525713e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>20.1658950617284</v>
       </c>
       <c r="AH15" t="n">
-        <v>1443239.037412287</v>
+        <v>1570091.618103913</v>
       </c>
     </row>
     <row r="16">
@@ -43301,28 +43301,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1154.119164639538</v>
+        <v>1256.612981017673</v>
       </c>
       <c r="AB16" t="n">
-        <v>1579.11675720388</v>
+        <v>1719.353318480496</v>
       </c>
       <c r="AC16" t="n">
-        <v>1428.408070200629</v>
+        <v>1555.260650892255</v>
       </c>
       <c r="AD16" t="n">
-        <v>1154119.164639538</v>
+        <v>1256612.981017673</v>
       </c>
       <c r="AE16" t="n">
-        <v>1579116.75720388</v>
+        <v>1719353.318480496</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.024227775752839e-06</v>
+        <v>1.751315354140465e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20.10802469135803</v>
       </c>
       <c r="AH16" t="n">
-        <v>1428408.070200629</v>
+        <v>1555260.650892255</v>
       </c>
     </row>
     <row r="17">
@@ -43407,28 +43407,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1148.100480636499</v>
+        <v>1250.594297014634</v>
       </c>
       <c r="AB17" t="n">
-        <v>1570.881728225322</v>
+        <v>1711.118289501939</v>
       </c>
       <c r="AC17" t="n">
-        <v>1420.95898082985</v>
+        <v>1547.811561521476</v>
       </c>
       <c r="AD17" t="n">
-        <v>1148100.480636499</v>
+        <v>1250594.297014634</v>
       </c>
       <c r="AE17" t="n">
-        <v>1570881.728225322</v>
+        <v>1711118.289501939</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.024814939893619e-06</v>
+        <v>1.75231933938622e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20.09645061728395</v>
       </c>
       <c r="AH17" t="n">
-        <v>1420958.98082985</v>
+        <v>1547811.561521476</v>
       </c>
     </row>
     <row r="18">
@@ -43513,28 +43513,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1151.485675563761</v>
+        <v>1253.979491941896</v>
       </c>
       <c r="AB18" t="n">
-        <v>1575.513501269063</v>
+        <v>1715.750062545679</v>
       </c>
       <c r="AC18" t="n">
-        <v>1425.148703955029</v>
+        <v>1552.001284646656</v>
       </c>
       <c r="AD18" t="n">
-        <v>1151485.675563761</v>
+        <v>1253979.491941896</v>
       </c>
       <c r="AE18" t="n">
-        <v>1575513.501269063</v>
+        <v>1715750.062545679</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.024708182777113e-06</v>
+        <v>1.752136796614264e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>20.09645061728395</v>
       </c>
       <c r="AH18" t="n">
-        <v>1425148.703955029</v>
+        <v>1552001.284646656</v>
       </c>
     </row>
   </sheetData>
@@ -43810,28 +43810,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>566.2055163704745</v>
+        <v>663.7753171168698</v>
       </c>
       <c r="AB2" t="n">
-        <v>774.707366722521</v>
+        <v>908.2066725795534</v>
       </c>
       <c r="AC2" t="n">
-        <v>700.7703829511411</v>
+        <v>821.5287024246309</v>
       </c>
       <c r="AD2" t="n">
-        <v>566205.5163704745</v>
+        <v>663775.3171168698</v>
       </c>
       <c r="AE2" t="n">
-        <v>774707.366722521</v>
+        <v>908206.6725795533</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.173408984504588e-06</v>
+        <v>2.515155914778937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.55015432098766</v>
       </c>
       <c r="AH2" t="n">
-        <v>700770.3829511411</v>
+        <v>821528.7024246309</v>
       </c>
     </row>
   </sheetData>
@@ -44107,28 +44107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1471.510759615679</v>
+        <v>1602.550242211627</v>
       </c>
       <c r="AB2" t="n">
-        <v>2013.385939779171</v>
+        <v>2192.679940920912</v>
       </c>
       <c r="AC2" t="n">
-        <v>1821.231211491561</v>
+        <v>1983.413644805045</v>
       </c>
       <c r="AD2" t="n">
-        <v>1471510.75961568</v>
+        <v>1602550.242211627</v>
       </c>
       <c r="AE2" t="n">
-        <v>2013385.939779171</v>
+        <v>2192679.940920913</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.56245881154195e-07</v>
+        <v>1.577575269487305e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.4891975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>1821231.211491561</v>
+        <v>1983413.644805045</v>
       </c>
     </row>
     <row r="3">
@@ -44213,28 +44213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1110.06302236732</v>
+        <v>1213.138454747173</v>
       </c>
       <c r="AB3" t="n">
-        <v>1518.837199727208</v>
+        <v>1659.869553676462</v>
       </c>
       <c r="AC3" t="n">
-        <v>1373.881509086641</v>
+        <v>1501.45393311513</v>
       </c>
       <c r="AD3" t="n">
-        <v>1110063.02236732</v>
+        <v>1213138.454747173</v>
       </c>
       <c r="AE3" t="n">
-        <v>1518837.199727208</v>
+        <v>1659869.553676462</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.013915050619046e-06</v>
+        <v>1.868070077092176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.36882716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>1373881.509086641</v>
+        <v>1501453.93311513</v>
       </c>
     </row>
     <row r="4">
@@ -44319,28 +44319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1001.605939590577</v>
+        <v>1104.596031115858</v>
       </c>
       <c r="AB4" t="n">
-        <v>1370.441434283269</v>
+        <v>1511.357021110325</v>
       </c>
       <c r="AC4" t="n">
-        <v>1239.648427221906</v>
+        <v>1367.115228218457</v>
       </c>
       <c r="AD4" t="n">
-        <v>1001605.939590577</v>
+        <v>1104596.031115858</v>
       </c>
       <c r="AE4" t="n">
-        <v>1370441.434283269</v>
+        <v>1511357.021110325</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.069645987476868e-06</v>
+        <v>1.970750568370856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.20370370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>1239648.427221906</v>
+        <v>1367115.228218457</v>
       </c>
     </row>
     <row r="5">
@@ -44425,28 +44425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>929.7560827422343</v>
+        <v>1032.831425613536</v>
       </c>
       <c r="AB5" t="n">
-        <v>1272.133290351395</v>
+        <v>1413.165521831101</v>
       </c>
       <c r="AC5" t="n">
-        <v>1150.722674570544</v>
+        <v>1278.294987817807</v>
       </c>
       <c r="AD5" t="n">
-        <v>929756.0827422343</v>
+        <v>1032831.425613536</v>
       </c>
       <c r="AE5" t="n">
-        <v>1272133.290351395</v>
+        <v>1413165.521831101</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.099980548045049e-06</v>
+        <v>2.026639949699757e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.62114197530865</v>
       </c>
       <c r="AH5" t="n">
-        <v>1150722.674570544</v>
+        <v>1278294.987817807</v>
       </c>
     </row>
     <row r="6">
@@ -44531,28 +44531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>883.9077135219896</v>
+        <v>977.6049019267631</v>
       </c>
       <c r="AB6" t="n">
-        <v>1209.40152889696</v>
+        <v>1337.602155700587</v>
       </c>
       <c r="AC6" t="n">
-        <v>1093.97794438474</v>
+        <v>1209.943283296938</v>
       </c>
       <c r="AD6" t="n">
-        <v>883907.7135219896</v>
+        <v>977604.9019267631</v>
       </c>
       <c r="AE6" t="n">
-        <v>1209401.52889696</v>
+        <v>1337602.155700587</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.117029041387632e-06</v>
+        <v>2.058050648508636e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.30478395061728</v>
       </c>
       <c r="AH6" t="n">
-        <v>1093977.94438474</v>
+        <v>1209943.283296939</v>
       </c>
     </row>
     <row r="7">
@@ -44637,28 +44637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>876.0383114808434</v>
+        <v>969.7354998856168</v>
       </c>
       <c r="AB7" t="n">
-        <v>1198.634265850748</v>
+        <v>1326.834892654375</v>
       </c>
       <c r="AC7" t="n">
-        <v>1084.23829381171</v>
+        <v>1200.203632723908</v>
       </c>
       <c r="AD7" t="n">
-        <v>876038.3114808433</v>
+        <v>969735.4998856168</v>
       </c>
       <c r="AE7" t="n">
-        <v>1198634.265850748</v>
+        <v>1326834.892654375</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.11985086097537e-06</v>
+        <v>2.063249660725278e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.25462962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>1084238.29381171</v>
+        <v>1200203.632723908</v>
       </c>
     </row>
     <row r="8">
@@ -44743,28 +44743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>879.5329891043426</v>
+        <v>973.2301775091163</v>
       </c>
       <c r="AB8" t="n">
-        <v>1203.415837949516</v>
+        <v>1331.616464753142</v>
       </c>
       <c r="AC8" t="n">
-        <v>1088.56351938035</v>
+        <v>1204.528858292548</v>
       </c>
       <c r="AD8" t="n">
-        <v>879532.9891043426</v>
+        <v>973230.1775091162</v>
       </c>
       <c r="AE8" t="n">
-        <v>1203415.837949516</v>
+        <v>1331616.464753142</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.119733285159214e-06</v>
+        <v>2.063033035216251e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.25462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>1088563.51938035</v>
+        <v>1204528.858292548</v>
       </c>
     </row>
   </sheetData>
@@ -45040,28 +45040,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1920.707793484466</v>
+        <v>2066.243664897409</v>
       </c>
       <c r="AB2" t="n">
-        <v>2627.997138692953</v>
+        <v>2827.125738549646</v>
       </c>
       <c r="AC2" t="n">
-        <v>2377.184780193246</v>
+        <v>2557.308825958362</v>
       </c>
       <c r="AD2" t="n">
-        <v>1920707.793484466</v>
+        <v>2066243.664897409</v>
       </c>
       <c r="AE2" t="n">
-        <v>2627997.138692953</v>
+        <v>2827125.738549646</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.487634454900095e-07</v>
+        <v>1.337611251899093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.16280864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>2377184.780193246</v>
+        <v>2557308.825958362</v>
       </c>
     </row>
     <row r="3">
@@ -45146,28 +45146,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1356.856979266126</v>
+        <v>1473.251557956363</v>
       </c>
       <c r="AB3" t="n">
-        <v>1856.511579337111</v>
+        <v>2015.767776867496</v>
       </c>
       <c r="AC3" t="n">
-        <v>1679.328719835543</v>
+        <v>1823.385729391105</v>
       </c>
       <c r="AD3" t="n">
-        <v>1356856.979266126</v>
+        <v>1473251.557956363</v>
       </c>
       <c r="AE3" t="n">
-        <v>1856511.579337111</v>
+        <v>2015767.776867496</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.298839402793383e-07</v>
+        <v>1.661169797977942e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.48379629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>1679328.719835543</v>
+        <v>1823385.729391105</v>
       </c>
     </row>
     <row r="4">
@@ -45252,28 +45252,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1202.530796689582</v>
+        <v>1318.925285871268</v>
       </c>
       <c r="AB4" t="n">
-        <v>1645.355687945221</v>
+        <v>1804.611763006058</v>
       </c>
       <c r="AC4" t="n">
-        <v>1488.32525035894</v>
+        <v>1632.382149133276</v>
       </c>
       <c r="AD4" t="n">
-        <v>1202530.796689582</v>
+        <v>1318925.285871268</v>
       </c>
       <c r="AE4" t="n">
-        <v>1645355.687945221</v>
+        <v>1804611.763006058</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.956533199497135e-07</v>
+        <v>1.778661995022825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.93287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1488325.25035894</v>
+        <v>1632382.149133276</v>
       </c>
     </row>
     <row r="5">
@@ -45358,28 +45358,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1130.294716191319</v>
+        <v>1236.975530640653</v>
       </c>
       <c r="AB5" t="n">
-        <v>1546.519095776541</v>
+        <v>1692.48449253149</v>
       </c>
       <c r="AC5" t="n">
-        <v>1398.92148382881</v>
+        <v>1530.956147981188</v>
       </c>
       <c r="AD5" t="n">
-        <v>1130294.716191319</v>
+        <v>1236975.530640653</v>
       </c>
       <c r="AE5" t="n">
-        <v>1546519.095776541</v>
+        <v>1692484.49253149</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.030745415815146e-06</v>
+        <v>1.841351463325602e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.18441358024691</v>
       </c>
       <c r="AH5" t="n">
-        <v>1398921.48382881</v>
+        <v>1530956.147981188</v>
       </c>
     </row>
     <row r="6">
@@ -45464,28 +45464,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075.391772346018</v>
+        <v>1182.157838141373</v>
       </c>
       <c r="AB6" t="n">
-        <v>1471.398465860464</v>
+        <v>1617.480507268062</v>
       </c>
       <c r="AC6" t="n">
-        <v>1330.970261399458</v>
+        <v>1463.110437802547</v>
       </c>
       <c r="AD6" t="n">
-        <v>1075391.772346018</v>
+        <v>1182157.838141373</v>
       </c>
       <c r="AE6" t="n">
-        <v>1471398.465860464</v>
+        <v>1617480.507268062</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.050498869778107e-06</v>
+        <v>1.876639567257326e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.78703703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>1330970.261399457</v>
+        <v>1463110.437802548</v>
       </c>
     </row>
     <row r="7">
@@ -45570,28 +45570,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1035.007742958272</v>
+        <v>1141.603216553035</v>
       </c>
       <c r="AB7" t="n">
-        <v>1416.143255234513</v>
+        <v>1561.991884867265</v>
       </c>
       <c r="AC7" t="n">
-        <v>1280.988530524473</v>
+        <v>1412.917571644912</v>
       </c>
       <c r="AD7" t="n">
-        <v>1035007.742958272</v>
+        <v>1141603.216553034</v>
       </c>
       <c r="AE7" t="n">
-        <v>1416143.255234513</v>
+        <v>1561991.884867265</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.066063912299065e-06</v>
+        <v>1.904445379810978e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.48225308641976</v>
       </c>
       <c r="AH7" t="n">
-        <v>1280988.530524473</v>
+        <v>1412917.571644912</v>
       </c>
     </row>
     <row r="8">
@@ -45676,28 +45676,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>999.0117341344932</v>
+        <v>1096.064125197496</v>
       </c>
       <c r="AB8" t="n">
-        <v>1366.891927929987</v>
+        <v>1499.683291031698</v>
       </c>
       <c r="AC8" t="n">
-        <v>1236.437680773219</v>
+        <v>1356.555622554351</v>
       </c>
       <c r="AD8" t="n">
-        <v>999011.7341344932</v>
+        <v>1096064.125197496</v>
       </c>
       <c r="AE8" t="n">
-        <v>1366891.927929987</v>
+        <v>1499683.291031698</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.076478340749451e-06</v>
+        <v>1.923049996210511e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.28549382716049</v>
       </c>
       <c r="AH8" t="n">
-        <v>1236437.680773219</v>
+        <v>1356555.622554351</v>
       </c>
     </row>
     <row r="9">
@@ -45782,28 +45782,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>976.0133735518563</v>
+        <v>1073.065764614859</v>
       </c>
       <c r="AB9" t="n">
-        <v>1335.424556364763</v>
+        <v>1468.215919466474</v>
       </c>
       <c r="AC9" t="n">
-        <v>1207.973510985446</v>
+        <v>1328.091452766578</v>
       </c>
       <c r="AD9" t="n">
-        <v>976013.3735518563</v>
+        <v>1073065.764614859</v>
       </c>
       <c r="AE9" t="n">
-        <v>1335424.556364763</v>
+        <v>1468215.919466474</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.082364756830105e-06</v>
+        <v>1.933565648958074e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.17361111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>1207973.510985446</v>
+        <v>1328091.452766578</v>
       </c>
     </row>
     <row r="10">
@@ -45888,28 +45888,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>970.9736802686866</v>
+        <v>1068.02607133169</v>
       </c>
       <c r="AB10" t="n">
-        <v>1328.529025679154</v>
+        <v>1461.320388780865</v>
       </c>
       <c r="AC10" t="n">
-        <v>1201.736080070533</v>
+        <v>1321.854021851666</v>
       </c>
       <c r="AD10" t="n">
-        <v>970973.6802686866</v>
+        <v>1068026.07133169</v>
       </c>
       <c r="AE10" t="n">
-        <v>1328529.025679154</v>
+        <v>1461320.388780865</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.084232561932619e-06</v>
+        <v>1.936902346464512e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.13888888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1201736.080070533</v>
+        <v>1321854.021851666</v>
       </c>
     </row>
     <row r="11">
@@ -45994,28 +45994,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>975.5644490025327</v>
+        <v>1072.616840065536</v>
       </c>
       <c r="AB11" t="n">
-        <v>1334.810317991225</v>
+        <v>1467.601681092936</v>
       </c>
       <c r="AC11" t="n">
-        <v>1207.417894660189</v>
+        <v>1327.535836441322</v>
       </c>
       <c r="AD11" t="n">
-        <v>975564.4490025326</v>
+        <v>1072616.840065536</v>
       </c>
       <c r="AE11" t="n">
-        <v>1334810.317991225</v>
+        <v>1467601.681092936</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.084062761468754e-06</v>
+        <v>1.936599010327563e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.14274691358025</v>
       </c>
       <c r="AH11" t="n">
-        <v>1207417.894660189</v>
+        <v>1327535.836441322</v>
       </c>
     </row>
   </sheetData>
